--- a/alm_bond_data.xlsx
+++ b/alm_bond_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fumito\OneDrive\pyproj\poc-alm-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e058ec69bd94c7d/pyproj/poc-alm-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AFDA1-7EB6-4093-9EC7-BF029B5C6974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{C4D72220-0804-4309-A10E-56B757886178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1509" yWindow="1509" windowWidth="27814" windowHeight="16714" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="27814" windowHeight="16714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inforce_bonds" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +101,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,21 +142,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A832" workbookViewId="0">
-      <selection activeCell="H1020" sqref="H1020"/>
+    <sheetView tabSelected="1" topLeftCell="A988" workbookViewId="0">
+      <selection sqref="A1:J1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -471,7 +484,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -503,8 +516,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>235000</v>
+      <c r="D2" s="5">
+        <v>304602000</v>
       </c>
       <c r="E2" s="2">
         <v>43081</v>
@@ -535,8 +548,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>324000</v>
+      <c r="D3" s="5">
+        <v>385083000</v>
       </c>
       <c r="E3" s="2">
         <v>44529</v>
@@ -567,8 +580,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>799000</v>
+      <c r="D4" s="5">
+        <v>817629000</v>
       </c>
       <c r="E4" s="2">
         <v>42769</v>
@@ -599,8 +612,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>679000</v>
+      <c r="D5" s="5">
+        <v>708629000</v>
       </c>
       <c r="E5" s="2">
         <v>43058</v>
@@ -631,8 +644,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>397000</v>
+      <c r="D6" s="5">
+        <v>451999000</v>
       </c>
       <c r="E6" s="2">
         <v>43282</v>
@@ -663,8 +676,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>339000</v>
+      <c r="D7" s="5">
+        <v>399533000</v>
       </c>
       <c r="E7" s="2">
         <v>43189</v>
@@ -695,8 +708,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>602000</v>
+      <c r="D8" s="5">
+        <v>638478000</v>
       </c>
       <c r="E8" s="2">
         <v>42846</v>
@@ -727,8 +740,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>195000</v>
+      <c r="D9" s="5">
+        <v>268061000</v>
       </c>
       <c r="E9" s="2">
         <v>43471</v>
@@ -759,8 +772,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>676000</v>
+      <c r="D10" s="5">
+        <v>705480000</v>
       </c>
       <c r="E10" s="2">
         <v>43173</v>
@@ -791,8 +804,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>942000</v>
+      <c r="D11" s="5">
+        <v>947623000</v>
       </c>
       <c r="E11" s="2">
         <v>43343</v>
@@ -823,8 +836,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>256000</v>
+      <c r="D12" s="5">
+        <v>323421000</v>
       </c>
       <c r="E12" s="2">
         <v>42932</v>
@@ -855,8 +868,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>949000</v>
+      <c r="D13" s="5">
+        <v>953993000</v>
       </c>
       <c r="E13" s="2">
         <v>44314</v>
@@ -887,8 +900,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>671000</v>
+      <c r="D14" s="5">
+        <v>700514000</v>
       </c>
       <c r="E14" s="2">
         <v>44171</v>
@@ -919,8 +932,8 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>105000</v>
+      <c r="D15" s="5">
+        <v>186308000</v>
       </c>
       <c r="E15" s="2">
         <v>42762</v>
@@ -951,8 +964,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>447000</v>
+      <c r="D16" s="5">
+        <v>497656000</v>
       </c>
       <c r="E16" s="2">
         <v>42793</v>
@@ -983,8 +996,8 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>888000</v>
+      <c r="D17" s="5">
+        <v>897832000</v>
       </c>
       <c r="E17" s="2">
         <v>43952</v>
@@ -1015,8 +1028,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>700000</v>
+      <c r="D18" s="5">
+        <v>727708000</v>
       </c>
       <c r="E18" s="2">
         <v>43229</v>
@@ -1047,8 +1060,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>333000</v>
+      <c r="D19" s="5">
+        <v>393826000</v>
       </c>
       <c r="E19" s="2">
         <v>43385</v>
@@ -1079,8 +1092,8 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>737000</v>
+      <c r="D20" s="5">
+        <v>760535000</v>
       </c>
       <c r="E20" s="2">
         <v>43621</v>
@@ -1111,8 +1124,8 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>228000</v>
+      <c r="D21" s="5">
+        <v>298121000</v>
       </c>
       <c r="E21" s="2">
         <v>44461</v>
@@ -1143,8 +1156,8 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>91000</v>
+      <c r="D22" s="5">
+        <v>173435000</v>
       </c>
       <c r="E22" s="2">
         <v>42955</v>
@@ -1175,8 +1188,8 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>168000</v>
+      <c r="D23" s="5">
+        <v>243906000</v>
       </c>
       <c r="E23" s="2">
         <v>43391</v>
@@ -1207,8 +1220,8 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>347000</v>
+      <c r="D24" s="5">
+        <v>406090000</v>
       </c>
       <c r="E24" s="2">
         <v>44128</v>
@@ -1239,8 +1252,8 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>471000</v>
+      <c r="D25" s="5">
+        <v>518674000</v>
       </c>
       <c r="E25" s="2">
         <v>43811</v>
@@ -1271,8 +1284,8 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>274000</v>
+      <c r="D26" s="5">
+        <v>339779000</v>
       </c>
       <c r="E26" s="2">
         <v>43404</v>
@@ -1303,8 +1316,8 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>818000</v>
+      <c r="D27" s="5">
+        <v>834199000</v>
       </c>
       <c r="E27" s="2">
         <v>43668</v>
@@ -1335,8 +1348,8 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>201000</v>
+      <c r="D28" s="5">
+        <v>273965000</v>
       </c>
       <c r="E28" s="2">
         <v>42800</v>
@@ -1367,8 +1380,8 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>138000</v>
+      <c r="D29" s="5">
+        <v>216522000</v>
       </c>
       <c r="E29" s="2">
         <v>43372</v>
@@ -1399,8 +1412,8 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>101000</v>
+      <c r="D30" s="5">
+        <v>182498000</v>
       </c>
       <c r="E30" s="2">
         <v>44003</v>
@@ -1431,8 +1444,8 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>603000</v>
+      <c r="D31" s="5">
+        <v>638711000</v>
       </c>
       <c r="E31" s="2">
         <v>42767</v>
@@ -1463,8 +1476,8 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>856000</v>
+      <c r="D32" s="5">
+        <v>869268000</v>
       </c>
       <c r="E32" s="2">
         <v>43626</v>
@@ -1495,8 +1508,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>606000</v>
+      <c r="D33" s="5">
+        <v>641459000</v>
       </c>
       <c r="E33" s="2">
         <v>43053</v>
@@ -1527,8 +1540,8 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>933000</v>
+      <c r="D34" s="5">
+        <v>938790000</v>
       </c>
       <c r="E34" s="2">
         <v>43080</v>
@@ -1559,8 +1572,8 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35">
-        <v>728000</v>
+      <c r="D35" s="5">
+        <v>752303000</v>
       </c>
       <c r="E35" s="2">
         <v>43286</v>
@@ -1591,8 +1604,8 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36">
-        <v>862000</v>
+      <c r="D36" s="5">
+        <v>874496000</v>
       </c>
       <c r="E36" s="2">
         <v>43128</v>
@@ -1623,8 +1636,8 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>930000</v>
+      <c r="D37" s="5">
+        <v>936404000</v>
       </c>
       <c r="E37" s="2">
         <v>42942</v>
@@ -1655,8 +1668,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>551000</v>
+      <c r="D38" s="5">
+        <v>591567000</v>
       </c>
       <c r="E38" s="2">
         <v>43255</v>
@@ -1687,8 +1700,8 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39">
-        <v>938000</v>
+      <c r="D39" s="5">
+        <v>943906000</v>
       </c>
       <c r="E39" s="2">
         <v>44132</v>
@@ -1719,8 +1732,8 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>500000</v>
+      <c r="D40" s="5">
+        <v>545489000</v>
       </c>
       <c r="E40" s="2">
         <v>43801</v>
@@ -1751,8 +1764,8 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>281000</v>
+      <c r="D41" s="5">
+        <v>346396000</v>
       </c>
       <c r="E41" s="2">
         <v>44147</v>
@@ -1783,8 +1796,8 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42">
-        <v>457000</v>
+      <c r="D42" s="5">
+        <v>506601000</v>
       </c>
       <c r="E42" s="2">
         <v>44265</v>
@@ -1815,8 +1828,8 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43">
-        <v>668000</v>
+      <c r="D43" s="5">
+        <v>698535000</v>
       </c>
       <c r="E43" s="2">
         <v>44043</v>
@@ -1847,8 +1860,8 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>338000</v>
+      <c r="D44" s="5">
+        <v>397802000</v>
       </c>
       <c r="E44" s="2">
         <v>43109</v>
@@ -1879,8 +1892,8 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>904000</v>
+      <c r="D45" s="5">
+        <v>913109000</v>
       </c>
       <c r="E45" s="2">
         <v>43434</v>
@@ -1911,8 +1924,8 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>265000</v>
+      <c r="D46" s="5">
+        <v>331367000</v>
       </c>
       <c r="E46" s="2">
         <v>43280</v>
@@ -1943,8 +1956,8 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47">
-        <v>346000</v>
+      <c r="D47" s="5">
+        <v>405846000</v>
       </c>
       <c r="E47" s="2">
         <v>44106</v>
@@ -1975,8 +1988,8 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>266000</v>
+      <c r="D48" s="5">
+        <v>332968000</v>
       </c>
       <c r="E48" s="2">
         <v>43862</v>
@@ -2007,8 +2020,8 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>362000</v>
+      <c r="D49" s="5">
+        <v>419902000</v>
       </c>
       <c r="E49" s="2">
         <v>43886</v>
@@ -2039,8 +2052,8 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>15000</v>
+      <c r="D50" s="5">
+        <v>104520000</v>
       </c>
       <c r="E50" s="2">
         <v>44322</v>
@@ -2071,8 +2084,8 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>632000</v>
+      <c r="D51" s="5">
+        <v>665744000</v>
       </c>
       <c r="E51" s="2">
         <v>43170</v>
@@ -2103,8 +2116,8 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>290000</v>
+      <c r="D52" s="5">
+        <v>354144000</v>
       </c>
       <c r="E52" s="2">
         <v>43230</v>
@@ -2135,8 +2148,8 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>77000</v>
+      <c r="D53" s="5">
+        <v>161279000</v>
       </c>
       <c r="E53" s="2">
         <v>43933</v>
@@ -2167,8 +2180,8 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54">
-        <v>621000</v>
+      <c r="D54" s="5">
+        <v>655146000</v>
       </c>
       <c r="E54" s="2">
         <v>44286</v>
@@ -2199,8 +2212,8 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>185000</v>
+      <c r="D55" s="5">
+        <v>258694000</v>
       </c>
       <c r="E55" s="2">
         <v>42756</v>
@@ -2231,8 +2244,8 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>311000</v>
+      <c r="D56" s="5">
+        <v>373950000</v>
       </c>
       <c r="E56" s="2">
         <v>44401</v>
@@ -2263,8 +2276,8 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>446000</v>
+      <c r="D57" s="5">
+        <v>496798000</v>
       </c>
       <c r="E57" s="2">
         <v>43224</v>
@@ -2295,8 +2308,8 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58">
-        <v>159000</v>
+      <c r="D58" s="5">
+        <v>235182000</v>
       </c>
       <c r="E58" s="2">
         <v>43328</v>
@@ -2327,8 +2340,8 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59">
-        <v>226000</v>
+      <c r="D59" s="5">
+        <v>296136000</v>
       </c>
       <c r="E59" s="2">
         <v>43907</v>
@@ -2359,8 +2372,8 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>480000</v>
+      <c r="D60" s="5">
+        <v>526900000</v>
       </c>
       <c r="E60" s="2">
         <v>44408</v>
@@ -2391,8 +2404,8 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>482000</v>
+      <c r="D61" s="5">
+        <v>528732000</v>
       </c>
       <c r="E61" s="2">
         <v>42856</v>
@@ -2423,8 +2436,8 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>263000</v>
+      <c r="D62" s="5">
+        <v>329709000</v>
       </c>
       <c r="E62" s="2">
         <v>43591</v>
@@ -2455,8 +2468,8 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>305000</v>
+      <c r="D63" s="5">
+        <v>367809000</v>
       </c>
       <c r="E63" s="2">
         <v>44216</v>
@@ -2487,8 +2500,8 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64">
-        <v>286000</v>
+      <c r="D64" s="5">
+        <v>351160000</v>
       </c>
       <c r="E64" s="2">
         <v>43642</v>
@@ -2519,8 +2532,8 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>268000</v>
+      <c r="D65" s="5">
+        <v>334521000</v>
       </c>
       <c r="E65" s="2">
         <v>43834</v>
@@ -2551,8 +2564,8 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>488000</v>
+      <c r="D66" s="5">
+        <v>534485000</v>
       </c>
       <c r="E66" s="2">
         <v>44041</v>
@@ -2583,8 +2596,8 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>220000</v>
+      <c r="D67" s="5">
+        <v>290781000</v>
       </c>
       <c r="E67" s="2">
         <v>43882</v>
@@ -2615,8 +2628,8 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>501000</v>
+      <c r="D68" s="5">
+        <v>546068000</v>
       </c>
       <c r="E68" s="2">
         <v>42762</v>
@@ -2647,8 +2660,8 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>254000</v>
+      <c r="D69" s="5">
+        <v>321635000</v>
       </c>
       <c r="E69" s="2">
         <v>44359</v>
@@ -2679,8 +2692,8 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
-        <v>840000</v>
+      <c r="D70" s="5">
+        <v>854634000</v>
       </c>
       <c r="E70" s="2">
         <v>43183</v>
@@ -2711,8 +2724,8 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71">
-        <v>188000</v>
+      <c r="D71" s="5">
+        <v>262118000</v>
       </c>
       <c r="E71" s="2">
         <v>43517</v>
@@ -2743,8 +2756,8 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72">
-        <v>864000</v>
+      <c r="D72" s="5">
+        <v>875941000</v>
       </c>
       <c r="E72" s="2">
         <v>44277</v>
@@ -2775,8 +2788,8 @@
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>187000</v>
+      <c r="D73" s="5">
+        <v>260470000</v>
       </c>
       <c r="E73" s="2">
         <v>43375</v>
@@ -2807,8 +2820,8 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74">
-        <v>753000</v>
+      <c r="D74" s="5">
+        <v>775478000</v>
       </c>
       <c r="E74" s="2">
         <v>43534</v>
@@ -2839,8 +2852,8 @@
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75">
-        <v>615000</v>
+      <c r="D75" s="5">
+        <v>650008000</v>
       </c>
       <c r="E75" s="2">
         <v>43843</v>
@@ -2871,8 +2884,8 @@
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76">
-        <v>217000</v>
+      <c r="D76" s="5">
+        <v>288240000</v>
       </c>
       <c r="E76" s="2">
         <v>43375</v>
@@ -2903,8 +2916,8 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>762000</v>
+      <c r="D77" s="5">
+        <v>783885000</v>
       </c>
       <c r="E77" s="2">
         <v>43243</v>
@@ -2935,8 +2948,8 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78">
-        <v>257000</v>
+      <c r="D78" s="5">
+        <v>324335000</v>
       </c>
       <c r="E78" s="2">
         <v>43688</v>
@@ -2967,8 +2980,8 @@
       <c r="C79">
         <v>0</v>
       </c>
-      <c r="D79">
-        <v>95000</v>
+      <c r="D79" s="5">
+        <v>177015000</v>
       </c>
       <c r="E79" s="2">
         <v>43062</v>
@@ -2999,8 +3012,8 @@
       <c r="C80">
         <v>0</v>
       </c>
-      <c r="D80">
-        <v>622000</v>
+      <c r="D80" s="5">
+        <v>656251000</v>
       </c>
       <c r="E80" s="2">
         <v>43458</v>
@@ -3031,8 +3044,8 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81">
-        <v>542000</v>
+      <c r="D81" s="5">
+        <v>583271000</v>
       </c>
       <c r="E81" s="2">
         <v>43124</v>
@@ -3063,8 +3076,8 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="D82">
-        <v>638000</v>
+      <c r="D82" s="5">
+        <v>671074000</v>
       </c>
       <c r="E82" s="2">
         <v>42961</v>
@@ -3095,8 +3108,8 @@
       <c r="C83">
         <v>0</v>
       </c>
-      <c r="D83">
-        <v>183000</v>
+      <c r="D83" s="5">
+        <v>256937000</v>
       </c>
       <c r="E83" s="2">
         <v>44508</v>
@@ -3127,8 +3140,8 @@
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="D84">
-        <v>256000</v>
+      <c r="D84" s="5">
+        <v>323348000</v>
       </c>
       <c r="E84" s="2">
         <v>44239</v>
@@ -3159,8 +3172,8 @@
       <c r="C85">
         <v>0</v>
       </c>
-      <c r="D85">
-        <v>688000</v>
+      <c r="D85" s="5">
+        <v>716341000</v>
       </c>
       <c r="E85" s="2">
         <v>44486</v>
@@ -3191,8 +3204,8 @@
       <c r="C86">
         <v>0</v>
       </c>
-      <c r="D86">
-        <v>90000</v>
+      <c r="D86" s="5">
+        <v>172784000</v>
       </c>
       <c r="E86" s="2">
         <v>43498</v>
@@ -3223,8 +3236,8 @@
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="D87">
-        <v>876000</v>
+      <c r="D87" s="5">
+        <v>887566000</v>
       </c>
       <c r="E87" s="2">
         <v>43211</v>
@@ -3255,8 +3268,8 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88">
-        <v>434000</v>
+      <c r="D88" s="5">
+        <v>485825000</v>
       </c>
       <c r="E88" s="2">
         <v>44379</v>
@@ -3287,8 +3300,8 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="D89">
-        <v>622000</v>
+      <c r="D89" s="5">
+        <v>656555000</v>
       </c>
       <c r="E89" s="2">
         <v>43202</v>
@@ -3319,8 +3332,8 @@
       <c r="C90">
         <v>0</v>
       </c>
-      <c r="D90">
-        <v>320000</v>
+      <c r="D90" s="5">
+        <v>381795000</v>
       </c>
       <c r="E90" s="2">
         <v>43519</v>
@@ -3351,8 +3364,8 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="D91">
-        <v>187000</v>
+      <c r="D91" s="5">
+        <v>261067000</v>
       </c>
       <c r="E91" s="2">
         <v>43869</v>
@@ -3383,8 +3396,8 @@
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="D92">
-        <v>20000</v>
+      <c r="D92" s="5">
+        <v>108741000</v>
       </c>
       <c r="E92" s="2">
         <v>43123</v>
@@ -3415,8 +3428,8 @@
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="D93">
-        <v>218000</v>
+      <c r="D93" s="5">
+        <v>289039000</v>
       </c>
       <c r="E93" s="2">
         <v>43622</v>
@@ -3447,8 +3460,8 @@
       <c r="C94">
         <v>0</v>
       </c>
-      <c r="D94">
-        <v>871000</v>
+      <c r="D94" s="5">
+        <v>883001000</v>
       </c>
       <c r="E94" s="2">
         <v>44180</v>
@@ -3479,8 +3492,8 @@
       <c r="C95">
         <v>0</v>
       </c>
-      <c r="D95">
-        <v>973000</v>
+      <c r="D95" s="5">
+        <v>975547000</v>
       </c>
       <c r="E95" s="2">
         <v>43831</v>
@@ -3511,8 +3524,8 @@
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96">
-        <v>447000</v>
+      <c r="D96" s="5">
+        <v>497613000</v>
       </c>
       <c r="E96" s="2">
         <v>43344</v>
@@ -3543,8 +3556,8 @@
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97">
-        <v>385000</v>
+      <c r="D97" s="5">
+        <v>440875000</v>
       </c>
       <c r="E97" s="2">
         <v>42997</v>
@@ -3575,8 +3588,8 @@
       <c r="C98">
         <v>0</v>
       </c>
-      <c r="D98">
-        <v>283000</v>
+      <c r="D98" s="5">
+        <v>348352000</v>
       </c>
       <c r="E98" s="2">
         <v>43552</v>
@@ -3607,8 +3620,8 @@
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99">
-        <v>966000</v>
+      <c r="D99" s="5">
+        <v>969494000</v>
       </c>
       <c r="E99" s="2">
         <v>43586</v>
@@ -3639,8 +3652,8 @@
       <c r="C100">
         <v>0</v>
       </c>
-      <c r="D100">
-        <v>68000</v>
+      <c r="D100" s="5">
+        <v>152382000</v>
       </c>
       <c r="E100" s="2">
         <v>43242</v>
@@ -3671,8 +3684,8 @@
       <c r="C101">
         <v>0</v>
       </c>
-      <c r="D101">
-        <v>415000</v>
+      <c r="D101" s="5">
+        <v>467861000</v>
       </c>
       <c r="E101" s="2">
         <v>43446</v>
@@ -3703,8 +3716,8 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="D102">
-        <v>177000</v>
+      <c r="D102" s="5">
+        <v>251766000</v>
       </c>
       <c r="E102" s="2">
         <v>43429</v>
@@ -3735,8 +3748,8 @@
       <c r="C103">
         <v>0</v>
       </c>
-      <c r="D103">
-        <v>248000</v>
+      <c r="D103" s="5">
+        <v>316130000</v>
       </c>
       <c r="E103" s="2">
         <v>42936</v>
@@ -3767,8 +3780,8 @@
       <c r="C104">
         <v>0</v>
       </c>
-      <c r="D104">
-        <v>782000</v>
+      <c r="D104" s="5">
+        <v>802007000</v>
       </c>
       <c r="E104" s="2">
         <v>44388</v>
@@ -3799,8 +3812,8 @@
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="D105">
-        <v>212000</v>
+      <c r="D105" s="5">
+        <v>283391000</v>
       </c>
       <c r="E105" s="2">
         <v>44190</v>
@@ -3831,8 +3844,8 @@
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="D106">
-        <v>557000</v>
+      <c r="D106" s="5">
+        <v>596846000</v>
       </c>
       <c r="E106" s="2">
         <v>43841</v>
@@ -3863,8 +3876,8 @@
       <c r="C107">
         <v>0</v>
       </c>
-      <c r="D107">
-        <v>373000</v>
+      <c r="D107" s="5">
+        <v>430295000</v>
       </c>
       <c r="E107" s="2">
         <v>43203</v>
@@ -3895,8 +3908,8 @@
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="D108">
-        <v>512000</v>
+      <c r="D108" s="5">
+        <v>556554000</v>
       </c>
       <c r="E108" s="2">
         <v>43749</v>
@@ -3927,8 +3940,8 @@
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="D109">
-        <v>340000</v>
+      <c r="D109" s="5">
+        <v>400094000</v>
       </c>
       <c r="E109" s="2">
         <v>43404</v>
@@ -3959,8 +3972,8 @@
       <c r="C110">
         <v>0</v>
       </c>
-      <c r="D110">
-        <v>290000</v>
+      <c r="D110" s="5">
+        <v>354450000</v>
       </c>
       <c r="E110" s="2">
         <v>43122</v>
@@ -3991,8 +4004,8 @@
       <c r="C111">
         <v>0</v>
       </c>
-      <c r="D111">
-        <v>289000</v>
+      <c r="D111" s="5">
+        <v>353647000</v>
       </c>
       <c r="E111" s="2">
         <v>43247</v>
@@ -4023,8 +4036,8 @@
       <c r="C112">
         <v>0</v>
       </c>
-      <c r="D112">
-        <v>95000</v>
+      <c r="D112" s="5">
+        <v>176843000</v>
       </c>
       <c r="E112" s="2">
         <v>43791</v>
@@ -4055,8 +4068,8 @@
       <c r="C113">
         <v>0</v>
       </c>
-      <c r="D113">
-        <v>487000</v>
+      <c r="D113" s="5">
+        <v>533632000</v>
       </c>
       <c r="E113" s="2">
         <v>43282</v>
@@ -4087,8 +4100,8 @@
       <c r="C114">
         <v>0</v>
       </c>
-      <c r="D114">
-        <v>885000</v>
+      <c r="D114" s="5">
+        <v>895009000</v>
       </c>
       <c r="E114" s="2">
         <v>43903</v>
@@ -4119,8 +4132,8 @@
       <c r="C115">
         <v>0</v>
       </c>
-      <c r="D115">
-        <v>948000</v>
+      <c r="D115" s="5">
+        <v>952505000</v>
       </c>
       <c r="E115" s="2">
         <v>44305</v>
@@ -4151,8 +4164,8 @@
       <c r="C116">
         <v>0</v>
       </c>
-      <c r="D116">
-        <v>37000</v>
+      <c r="D116" s="5">
+        <v>124645000</v>
       </c>
       <c r="E116" s="2">
         <v>44085</v>
@@ -4183,8 +4196,8 @@
       <c r="C117">
         <v>0</v>
       </c>
-      <c r="D117">
-        <v>919000</v>
+      <c r="D117" s="5">
+        <v>925977000</v>
       </c>
       <c r="E117" s="2">
         <v>44351</v>
@@ -4215,8 +4228,8 @@
       <c r="C118">
         <v>0</v>
       </c>
-      <c r="D118">
-        <v>130000</v>
+      <c r="D118" s="5">
+        <v>209372000</v>
       </c>
       <c r="E118" s="2">
         <v>44347</v>
@@ -4247,8 +4260,8 @@
       <c r="C119">
         <v>0</v>
       </c>
-      <c r="D119">
-        <v>750000</v>
+      <c r="D119" s="5">
+        <v>773063000</v>
       </c>
       <c r="E119" s="2">
         <v>44110</v>
@@ -4279,8 +4292,8 @@
       <c r="C120">
         <v>0</v>
       </c>
-      <c r="D120">
-        <v>898000</v>
+      <c r="D120" s="5">
+        <v>906869000</v>
       </c>
       <c r="E120" s="2">
         <v>43623</v>
@@ -4311,8 +4324,8 @@
       <c r="C121">
         <v>0</v>
       </c>
-      <c r="D121">
-        <v>176000</v>
+      <c r="D121" s="5">
+        <v>251137000</v>
       </c>
       <c r="E121" s="2">
         <v>43134</v>
@@ -4343,8 +4356,8 @@
       <c r="C122">
         <v>0</v>
       </c>
-      <c r="D122">
-        <v>338000</v>
+      <c r="D122" s="5">
+        <v>398317000</v>
       </c>
       <c r="E122" s="2">
         <v>42835</v>
@@ -4375,8 +4388,8 @@
       <c r="C123">
         <v>0</v>
       </c>
-      <c r="D123">
-        <v>384000</v>
+      <c r="D123" s="5">
+        <v>440341000</v>
       </c>
       <c r="E123" s="2">
         <v>43437</v>
@@ -4407,8 +4420,8 @@
       <c r="C124">
         <v>0</v>
       </c>
-      <c r="D124">
-        <v>353000</v>
+      <c r="D124" s="5">
+        <v>412164000</v>
       </c>
       <c r="E124" s="2">
         <v>42950</v>
@@ -4439,8 +4452,8 @@
       <c r="C125">
         <v>0</v>
       </c>
-      <c r="D125">
-        <v>521000</v>
+      <c r="D125" s="5">
+        <v>564630000</v>
       </c>
       <c r="E125" s="2">
         <v>42949</v>
@@ -4471,8 +4484,8 @@
       <c r="C126">
         <v>0</v>
       </c>
-      <c r="D126">
-        <v>19000</v>
+      <c r="D126" s="5">
+        <v>108095000</v>
       </c>
       <c r="E126" s="2">
         <v>43279</v>
@@ -4503,8 +4516,8 @@
       <c r="C127">
         <v>0</v>
       </c>
-      <c r="D127">
-        <v>428000</v>
+      <c r="D127" s="5">
+        <v>480410000</v>
       </c>
       <c r="E127" s="2">
         <v>43359</v>
@@ -4535,8 +4548,8 @@
       <c r="C128">
         <v>0</v>
       </c>
-      <c r="D128">
-        <v>879000</v>
+      <c r="D128" s="5">
+        <v>889892000</v>
       </c>
       <c r="E128" s="2">
         <v>44519</v>
@@ -4567,8 +4580,8 @@
       <c r="C129">
         <v>0</v>
       </c>
-      <c r="D129">
-        <v>97000</v>
+      <c r="D129" s="5">
+        <v>178665000</v>
       </c>
       <c r="E129" s="2">
         <v>42993</v>
@@ -4599,8 +4612,8 @@
       <c r="C130">
         <v>0</v>
       </c>
-      <c r="D130">
-        <v>489000</v>
+      <c r="D130" s="5">
+        <v>535676000</v>
       </c>
       <c r="E130" s="2">
         <v>43872</v>
@@ -4631,8 +4644,8 @@
       <c r="C131">
         <v>0</v>
       </c>
-      <c r="D131">
-        <v>486000</v>
+      <c r="D131" s="5">
+        <v>533105000</v>
       </c>
       <c r="E131" s="2">
         <v>42791</v>
@@ -4663,8 +4676,8 @@
       <c r="C132">
         <v>0</v>
       </c>
-      <c r="D132">
-        <v>785000</v>
+      <c r="D132" s="5">
+        <v>804314000</v>
       </c>
       <c r="E132" s="2">
         <v>44276</v>
@@ -4695,8 +4708,8 @@
       <c r="C133">
         <v>0</v>
       </c>
-      <c r="D133">
-        <v>965000</v>
+      <c r="D133" s="5">
+        <v>968104000</v>
       </c>
       <c r="E133" s="2">
         <v>42935</v>
@@ -4727,8 +4740,8 @@
       <c r="C134">
         <v>0</v>
       </c>
-      <c r="D134">
-        <v>710000</v>
+      <c r="D134" s="5">
+        <v>736387000</v>
       </c>
       <c r="E134" s="2">
         <v>43445</v>
@@ -4759,8 +4772,8 @@
       <c r="C135">
         <v>0</v>
       </c>
-      <c r="D135">
-        <v>281000</v>
+      <c r="D135" s="5">
+        <v>346363000</v>
       </c>
       <c r="E135" s="2">
         <v>43633</v>
@@ -4791,8 +4804,8 @@
       <c r="C136">
         <v>0</v>
       </c>
-      <c r="D136">
-        <v>673000</v>
+      <c r="D136" s="5">
+        <v>703102000</v>
       </c>
       <c r="E136" s="2">
         <v>44181</v>
@@ -4823,8 +4836,8 @@
       <c r="C137">
         <v>0</v>
       </c>
-      <c r="D137">
-        <v>354000</v>
+      <c r="D137" s="5">
+        <v>412781000</v>
       </c>
       <c r="E137" s="2">
         <v>43610</v>
@@ -4855,8 +4868,8 @@
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138">
-        <v>770000</v>
+      <c r="D138" s="5">
+        <v>791315000</v>
       </c>
       <c r="E138" s="2">
         <v>43239</v>
@@ -4887,8 +4900,8 @@
       <c r="C139">
         <v>0</v>
       </c>
-      <c r="D139">
-        <v>679000</v>
+      <c r="D139" s="5">
+        <v>708194000</v>
       </c>
       <c r="E139" s="2">
         <v>44191</v>
@@ -4919,8 +4932,8 @@
       <c r="C140">
         <v>0</v>
       </c>
-      <c r="D140">
-        <v>978000</v>
+      <c r="D140" s="5">
+        <v>979779000</v>
       </c>
       <c r="E140" s="2">
         <v>43102</v>
@@ -4951,8 +4964,8 @@
       <c r="C141">
         <v>0</v>
       </c>
-      <c r="D141">
-        <v>868000</v>
+      <c r="D141" s="5">
+        <v>880039000</v>
       </c>
       <c r="E141" s="2">
         <v>44498</v>
@@ -4983,8 +4996,8 @@
       <c r="C142">
         <v>0</v>
       </c>
-      <c r="D142">
-        <v>56000</v>
+      <c r="D142" s="5">
+        <v>141497000</v>
       </c>
       <c r="E142" s="2">
         <v>43919</v>
@@ -5015,8 +5028,8 @@
       <c r="C143">
         <v>0</v>
       </c>
-      <c r="D143">
-        <v>297000</v>
+      <c r="D143" s="5">
+        <v>361291000</v>
       </c>
       <c r="E143" s="2">
         <v>42780</v>
@@ -5047,8 +5060,8 @@
       <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144">
-        <v>864000</v>
+      <c r="D144" s="5">
+        <v>876152000</v>
       </c>
       <c r="E144" s="2">
         <v>44486</v>
@@ -5079,8 +5092,8 @@
       <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145">
-        <v>605000</v>
+      <c r="D145" s="5">
+        <v>640763000</v>
       </c>
       <c r="E145" s="2">
         <v>44312</v>
@@ -5111,8 +5124,8 @@
       <c r="C146">
         <v>0</v>
       </c>
-      <c r="D146">
-        <v>351000</v>
+      <c r="D146" s="5">
+        <v>409832000</v>
       </c>
       <c r="E146" s="2">
         <v>43106</v>
@@ -5143,8 +5156,8 @@
       <c r="C147">
         <v>0</v>
       </c>
-      <c r="D147">
-        <v>65000</v>
+      <c r="D147" s="5">
+        <v>150042000</v>
       </c>
       <c r="E147" s="2">
         <v>44526</v>
@@ -5175,8 +5188,8 @@
       <c r="C148">
         <v>0</v>
       </c>
-      <c r="D148">
-        <v>765000</v>
+      <c r="D148" s="5">
+        <v>786585000</v>
       </c>
       <c r="E148" s="2">
         <v>43503</v>
@@ -5207,8 +5220,8 @@
       <c r="C149">
         <v>0</v>
       </c>
-      <c r="D149">
-        <v>12000</v>
+      <c r="D149" s="5">
+        <v>101367000</v>
       </c>
       <c r="E149" s="2">
         <v>44521</v>
@@ -5239,8 +5252,8 @@
       <c r="C150">
         <v>0</v>
       </c>
-      <c r="D150">
-        <v>102000</v>
+      <c r="D150" s="5">
+        <v>183559000</v>
       </c>
       <c r="E150" s="2">
         <v>43677</v>
@@ -5271,8 +5284,8 @@
       <c r="C151">
         <v>0</v>
       </c>
-      <c r="D151">
-        <v>994000</v>
+      <c r="D151" s="5">
+        <v>994154000</v>
       </c>
       <c r="E151" s="2">
         <v>43478</v>
@@ -5303,8 +5316,8 @@
       <c r="C152">
         <v>0</v>
       </c>
-      <c r="D152">
-        <v>778000</v>
+      <c r="D152" s="5">
+        <v>798412000</v>
       </c>
       <c r="E152" s="2">
         <v>43412</v>
@@ -5335,8 +5348,8 @@
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="D153">
-        <v>870000</v>
+      <c r="D153" s="5">
+        <v>881444000</v>
       </c>
       <c r="E153" s="2">
         <v>44092</v>
@@ -5367,8 +5380,8 @@
       <c r="C154">
         <v>0</v>
       </c>
-      <c r="D154">
-        <v>482000</v>
+      <c r="D154" s="5">
+        <v>529442000</v>
       </c>
       <c r="E154" s="2">
         <v>44141</v>
@@ -5399,8 +5412,8 @@
       <c r="C155">
         <v>0</v>
       </c>
-      <c r="D155">
-        <v>177000</v>
+      <c r="D155" s="5">
+        <v>251964000</v>
       </c>
       <c r="E155" s="2">
         <v>44231</v>
@@ -5431,8 +5444,8 @@
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156">
-        <v>539000</v>
+      <c r="D156" s="5">
+        <v>580580000</v>
       </c>
       <c r="E156" s="2">
         <v>44143</v>
@@ -5463,8 +5476,8 @@
       <c r="C157">
         <v>0</v>
       </c>
-      <c r="D157">
-        <v>432000</v>
+      <c r="D157" s="5">
+        <v>483249000</v>
       </c>
       <c r="E157" s="2">
         <v>43004</v>
@@ -5495,8 +5508,8 @@
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158">
-        <v>171000</v>
+      <c r="D158" s="5">
+        <v>246727000</v>
       </c>
       <c r="E158" s="2">
         <v>42830</v>
@@ -5527,8 +5540,8 @@
       <c r="C159">
         <v>0</v>
       </c>
-      <c r="D159">
-        <v>174000</v>
+      <c r="D159" s="5">
+        <v>249290000</v>
       </c>
       <c r="E159" s="2">
         <v>43286</v>
@@ -5559,8 +5572,8 @@
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160">
-        <v>266000</v>
+      <c r="D160" s="5">
+        <v>332335000</v>
       </c>
       <c r="E160" s="2">
         <v>43339</v>
@@ -5591,8 +5604,8 @@
       <c r="C161">
         <v>0</v>
       </c>
-      <c r="D161">
-        <v>944000</v>
+      <c r="D161" s="5">
+        <v>948782000</v>
       </c>
       <c r="E161" s="2">
         <v>43444</v>
@@ -5623,8 +5636,8 @@
       <c r="C162">
         <v>0</v>
       </c>
-      <c r="D162">
-        <v>987000</v>
+      <c r="D162" s="5">
+        <v>988126000</v>
       </c>
       <c r="E162" s="2">
         <v>43775</v>
@@ -5655,8 +5668,8 @@
       <c r="C163">
         <v>0</v>
       </c>
-      <c r="D163">
-        <v>707000</v>
+      <c r="D163" s="5">
+        <v>733300000</v>
       </c>
       <c r="E163" s="2">
         <v>43235</v>
@@ -5687,8 +5700,8 @@
       <c r="C164">
         <v>0</v>
       </c>
-      <c r="D164">
-        <v>726000</v>
+      <c r="D164" s="5">
+        <v>750842000</v>
       </c>
       <c r="E164" s="2">
         <v>44517</v>
@@ -5719,8 +5732,8 @@
       <c r="C165">
         <v>0</v>
       </c>
-      <c r="D165">
-        <v>735000</v>
+      <c r="D165" s="5">
+        <v>759248000</v>
       </c>
       <c r="E165" s="2">
         <v>43425</v>
@@ -5751,8 +5764,8 @@
       <c r="C166">
         <v>0</v>
       </c>
-      <c r="D166">
-        <v>522000</v>
+      <c r="D166" s="5">
+        <v>565656000</v>
       </c>
       <c r="E166" s="2">
         <v>43130</v>
@@ -5783,8 +5796,8 @@
       <c r="C167">
         <v>0</v>
       </c>
-      <c r="D167">
-        <v>186000</v>
+      <c r="D167" s="5">
+        <v>259684000</v>
       </c>
       <c r="E167" s="2">
         <v>43465</v>
@@ -5815,8 +5828,8 @@
       <c r="C168">
         <v>0</v>
       </c>
-      <c r="D168">
-        <v>879000</v>
+      <c r="D168" s="5">
+        <v>889882000</v>
       </c>
       <c r="E168" s="2">
         <v>43554</v>
@@ -5847,8 +5860,8 @@
       <c r="C169">
         <v>0</v>
       </c>
-      <c r="D169">
-        <v>882000</v>
+      <c r="D169" s="5">
+        <v>892351000</v>
       </c>
       <c r="E169" s="2">
         <v>43738</v>
@@ -5879,8 +5892,8 @@
       <c r="C170">
         <v>0</v>
       </c>
-      <c r="D170">
-        <v>712000</v>
+      <c r="D170" s="5">
+        <v>738581000</v>
       </c>
       <c r="E170" s="2">
         <v>43078</v>
@@ -5911,8 +5924,8 @@
       <c r="C171">
         <v>0</v>
       </c>
-      <c r="D171">
-        <v>934000</v>
+      <c r="D171" s="5">
+        <v>940086000</v>
       </c>
       <c r="E171" s="2">
         <v>43552</v>
@@ -5943,8 +5956,8 @@
       <c r="C172">
         <v>0</v>
       </c>
-      <c r="D172">
-        <v>980000</v>
+      <c r="D172" s="5">
+        <v>981998000</v>
       </c>
       <c r="E172" s="2">
         <v>44452</v>
@@ -5975,8 +5988,8 @@
       <c r="C173">
         <v>0</v>
       </c>
-      <c r="D173">
-        <v>508000</v>
+      <c r="D173" s="5">
+        <v>553128000</v>
       </c>
       <c r="E173" s="2">
         <v>42976</v>
@@ -6007,8 +6020,8 @@
       <c r="C174">
         <v>0</v>
       </c>
-      <c r="D174">
-        <v>760000</v>
+      <c r="D174" s="5">
+        <v>781813000</v>
       </c>
       <c r="E174" s="2">
         <v>44197</v>
@@ -6039,8 +6052,8 @@
       <c r="C175">
         <v>0</v>
       </c>
-      <c r="D175">
-        <v>620000</v>
+      <c r="D175" s="5">
+        <v>654957000</v>
       </c>
       <c r="E175" s="2">
         <v>43180</v>
@@ -6071,8 +6084,8 @@
       <c r="C176">
         <v>0</v>
       </c>
-      <c r="D176">
-        <v>124000</v>
+      <c r="D176" s="5">
+        <v>203400000</v>
       </c>
       <c r="E176" s="2">
         <v>43336</v>
@@ -6103,8 +6116,8 @@
       <c r="C177">
         <v>0</v>
       </c>
-      <c r="D177">
-        <v>323000</v>
+      <c r="D177" s="5">
+        <v>384390000</v>
       </c>
       <c r="E177" s="2">
         <v>44361</v>
@@ -6135,8 +6148,8 @@
       <c r="C178">
         <v>0</v>
       </c>
-      <c r="D178">
-        <v>77000</v>
+      <c r="D178" s="5">
+        <v>160961000</v>
       </c>
       <c r="E178" s="2">
         <v>43579</v>
@@ -6167,8 +6180,8 @@
       <c r="C179">
         <v>0</v>
       </c>
-      <c r="D179">
-        <v>888000</v>
+      <c r="D179" s="5">
+        <v>898184000</v>
       </c>
       <c r="E179" s="2">
         <v>44428</v>
@@ -6199,8 +6212,8 @@
       <c r="C180">
         <v>0</v>
       </c>
-      <c r="D180">
-        <v>32000</v>
+      <c r="D180" s="5">
+        <v>119863000</v>
       </c>
       <c r="E180" s="2">
         <v>42761</v>
@@ -6231,8 +6244,8 @@
       <c r="C181">
         <v>0</v>
       </c>
-      <c r="D181">
-        <v>542000</v>
+      <c r="D181" s="5">
+        <v>583558000</v>
       </c>
       <c r="E181" s="2">
         <v>43745</v>
@@ -6263,8 +6276,8 @@
       <c r="C182">
         <v>0</v>
       </c>
-      <c r="D182">
-        <v>186000</v>
+      <c r="D182" s="5">
+        <v>259851000</v>
       </c>
       <c r="E182" s="2">
         <v>42871</v>
@@ -6295,8 +6308,8 @@
       <c r="C183">
         <v>0</v>
       </c>
-      <c r="D183">
-        <v>156000</v>
+      <c r="D183" s="5">
+        <v>232295000</v>
       </c>
       <c r="E183" s="2">
         <v>43658</v>
@@ -6327,8 +6340,8 @@
       <c r="C184">
         <v>0</v>
       </c>
-      <c r="D184">
-        <v>174000</v>
+      <c r="D184" s="5">
+        <v>249260000</v>
       </c>
       <c r="E184" s="2">
         <v>44118</v>
@@ -6359,8 +6372,8 @@
       <c r="C185">
         <v>0</v>
       </c>
-      <c r="D185">
-        <v>878000</v>
+      <c r="D185" s="5">
+        <v>889259000</v>
       </c>
       <c r="E185" s="2">
         <v>42996</v>
@@ -6391,8 +6404,8 @@
       <c r="C186">
         <v>0</v>
       </c>
-      <c r="D186">
-        <v>500000</v>
+      <c r="D186" s="5">
+        <v>545023000</v>
       </c>
       <c r="E186" s="2">
         <v>43139</v>
@@ -6423,8 +6436,8 @@
       <c r="C187">
         <v>0</v>
       </c>
-      <c r="D187">
-        <v>347000</v>
+      <c r="D187" s="5">
+        <v>406810000</v>
       </c>
       <c r="E187" s="2">
         <v>44270</v>
@@ -6455,8 +6468,8 @@
       <c r="C188">
         <v>0</v>
       </c>
-      <c r="D188">
-        <v>999000</v>
+      <c r="D188" s="5">
+        <v>999289000</v>
       </c>
       <c r="E188" s="2">
         <v>44108</v>
@@ -6487,8 +6500,8 @@
       <c r="C189">
         <v>0</v>
       </c>
-      <c r="D189">
-        <v>551000</v>
+      <c r="D189" s="5">
+        <v>591377000</v>
       </c>
       <c r="E189" s="2">
         <v>43778</v>
@@ -6519,8 +6532,8 @@
       <c r="C190">
         <v>0</v>
       </c>
-      <c r="D190">
-        <v>310000</v>
+      <c r="D190" s="5">
+        <v>372998000</v>
       </c>
       <c r="E190" s="2">
         <v>43811</v>
@@ -6551,8 +6564,8 @@
       <c r="C191">
         <v>0</v>
       </c>
-      <c r="D191">
-        <v>377000</v>
+      <c r="D191" s="5">
+        <v>433587000</v>
       </c>
       <c r="E191" s="2">
         <v>43094</v>
@@ -6583,8 +6596,8 @@
       <c r="C192">
         <v>0</v>
       </c>
-      <c r="D192">
-        <v>699000</v>
+      <c r="D192" s="5">
+        <v>726280000</v>
       </c>
       <c r="E192" s="2">
         <v>43678</v>
@@ -6615,8 +6628,8 @@
       <c r="C193">
         <v>0</v>
       </c>
-      <c r="D193">
-        <v>129000</v>
+      <c r="D193" s="5">
+        <v>208222000</v>
       </c>
       <c r="E193" s="2">
         <v>44376</v>
@@ -6647,8 +6660,8 @@
       <c r="C194">
         <v>0</v>
       </c>
-      <c r="D194">
-        <v>761000</v>
+      <c r="D194" s="5">
+        <v>782399000</v>
       </c>
       <c r="E194" s="2">
         <v>43525</v>
@@ -6679,8 +6692,8 @@
       <c r="C195">
         <v>0</v>
       </c>
-      <c r="D195">
-        <v>885000</v>
+      <c r="D195" s="5">
+        <v>895391000</v>
       </c>
       <c r="E195" s="2">
         <v>42865</v>
@@ -6711,8 +6724,8 @@
       <c r="C196">
         <v>0</v>
       </c>
-      <c r="D196">
-        <v>480000</v>
+      <c r="D196" s="5">
+        <v>527618000</v>
       </c>
       <c r="E196" s="2">
         <v>44453</v>
@@ -6743,8 +6756,8 @@
       <c r="C197">
         <v>0</v>
       </c>
-      <c r="D197">
-        <v>443000</v>
+      <c r="D197" s="5">
+        <v>493574000</v>
       </c>
       <c r="E197" s="2">
         <v>44162</v>
@@ -6775,8 +6788,8 @@
       <c r="C198">
         <v>0</v>
       </c>
-      <c r="D198">
-        <v>152000</v>
+      <c r="D198" s="5">
+        <v>228803000</v>
       </c>
       <c r="E198" s="2">
         <v>42871</v>
@@ -6807,8 +6820,8 @@
       <c r="C199">
         <v>0</v>
       </c>
-      <c r="D199">
-        <v>429000</v>
+      <c r="D199" s="5">
+        <v>480468000</v>
       </c>
       <c r="E199" s="2">
         <v>43500</v>
@@ -6839,8 +6852,8 @@
       <c r="C200">
         <v>0</v>
       </c>
-      <c r="D200">
-        <v>767000</v>
+      <c r="D200" s="5">
+        <v>787971000</v>
       </c>
       <c r="E200" s="2">
         <v>43014</v>
@@ -6871,8 +6884,8 @@
       <c r="C201">
         <v>0</v>
       </c>
-      <c r="D201">
-        <v>420000</v>
+      <c r="D201" s="5">
+        <v>472585000</v>
       </c>
       <c r="E201" s="2">
         <v>44350</v>
@@ -6903,8 +6916,8 @@
       <c r="C202">
         <v>0</v>
       </c>
-      <c r="D202">
-        <v>624000</v>
+      <c r="D202" s="5">
+        <v>657938000</v>
       </c>
       <c r="E202" s="2">
         <v>43931</v>
@@ -6935,8 +6948,8 @@
       <c r="C203">
         <v>0</v>
       </c>
-      <c r="D203">
-        <v>53000</v>
+      <c r="D203" s="5">
+        <v>139402000</v>
       </c>
       <c r="E203" s="2">
         <v>44433</v>
@@ -6967,8 +6980,8 @@
       <c r="C204">
         <v>0</v>
       </c>
-      <c r="D204">
-        <v>228000</v>
+      <c r="D204" s="5">
+        <v>297753000</v>
       </c>
       <c r="E204" s="2">
         <v>43593</v>
@@ -6999,8 +7012,8 @@
       <c r="C205">
         <v>0</v>
       </c>
-      <c r="D205">
-        <v>212000</v>
+      <c r="D205" s="5">
+        <v>283446000</v>
       </c>
       <c r="E205" s="2">
         <v>44544</v>
@@ -7031,8 +7044,8 @@
       <c r="C206">
         <v>0</v>
       </c>
-      <c r="D206">
-        <v>981000</v>
+      <c r="D206" s="5">
+        <v>983056000</v>
       </c>
       <c r="E206" s="2">
         <v>42874</v>
@@ -7063,8 +7076,8 @@
       <c r="C207">
         <v>0</v>
       </c>
-      <c r="D207">
-        <v>54000</v>
+      <c r="D207" s="5">
+        <v>140095000</v>
       </c>
       <c r="E207" s="2">
         <v>43161</v>
@@ -7095,8 +7108,8 @@
       <c r="C208">
         <v>0</v>
       </c>
-      <c r="D208">
-        <v>223000</v>
+      <c r="D208" s="5">
+        <v>293787000</v>
       </c>
       <c r="E208" s="2">
         <v>44211</v>
@@ -7127,8 +7140,8 @@
       <c r="C209">
         <v>0</v>
       </c>
-      <c r="D209">
-        <v>41000</v>
+      <c r="D209" s="5">
+        <v>128259000</v>
       </c>
       <c r="E209" s="2">
         <v>43814</v>
@@ -7159,8 +7172,8 @@
       <c r="C210">
         <v>0</v>
       </c>
-      <c r="D210">
-        <v>643000</v>
+      <c r="D210" s="5">
+        <v>675582000</v>
       </c>
       <c r="E210" s="2">
         <v>44417</v>
@@ -7191,8 +7204,8 @@
       <c r="C211">
         <v>0</v>
       </c>
-      <c r="D211">
-        <v>657000</v>
+      <c r="D211" s="5">
+        <v>687853000</v>
       </c>
       <c r="E211" s="2">
         <v>43417</v>
@@ -7223,8 +7236,8 @@
       <c r="C212">
         <v>0</v>
       </c>
-      <c r="D212">
-        <v>352000</v>
+      <c r="D212" s="5">
+        <v>410969000</v>
       </c>
       <c r="E212" s="2">
         <v>42740</v>
@@ -7255,8 +7268,8 @@
       <c r="C213">
         <v>0</v>
       </c>
-      <c r="D213">
-        <v>46000</v>
+      <c r="D213" s="5">
+        <v>132719000</v>
       </c>
       <c r="E213" s="2">
         <v>43591</v>
@@ -7287,8 +7300,8 @@
       <c r="C214">
         <v>0</v>
       </c>
-      <c r="D214">
-        <v>441000</v>
+      <c r="D214" s="5">
+        <v>491509000</v>
       </c>
       <c r="E214" s="2">
         <v>42988</v>
@@ -7319,8 +7332,8 @@
       <c r="C215">
         <v>0</v>
       </c>
-      <c r="D215">
-        <v>180000</v>
+      <c r="D215" s="5">
+        <v>254196000</v>
       </c>
       <c r="E215" s="2">
         <v>43023</v>
@@ -7351,8 +7364,8 @@
       <c r="C216">
         <v>0</v>
       </c>
-      <c r="D216">
-        <v>432000</v>
+      <c r="D216" s="5">
+        <v>484052000</v>
       </c>
       <c r="E216" s="2">
         <v>43127</v>
@@ -7383,8 +7396,8 @@
       <c r="C217">
         <v>0</v>
       </c>
-      <c r="D217">
-        <v>379000</v>
+      <c r="D217" s="5">
+        <v>435529000</v>
       </c>
       <c r="E217" s="2">
         <v>43105</v>
@@ -7415,8 +7428,8 @@
       <c r="C218">
         <v>0</v>
       </c>
-      <c r="D218">
-        <v>229000</v>
+      <c r="D218" s="5">
+        <v>298978000</v>
       </c>
       <c r="E218" s="2">
         <v>43505</v>
@@ -7447,8 +7460,8 @@
       <c r="C219">
         <v>0</v>
       </c>
-      <c r="D219">
-        <v>843000</v>
+      <c r="D219" s="5">
+        <v>857477000</v>
       </c>
       <c r="E219" s="2">
         <v>43766</v>
@@ -7479,8 +7492,8 @@
       <c r="C220">
         <v>0</v>
       </c>
-      <c r="D220">
-        <v>696000</v>
+      <c r="D220" s="5">
+        <v>723354000</v>
       </c>
       <c r="E220" s="2">
         <v>44245</v>
@@ -7511,8 +7524,8 @@
       <c r="C221">
         <v>0</v>
       </c>
-      <c r="D221">
-        <v>476000</v>
+      <c r="D221" s="5">
+        <v>523581000</v>
       </c>
       <c r="E221" s="2">
         <v>42787</v>
@@ -7543,8 +7556,8 @@
       <c r="C222">
         <v>0</v>
       </c>
-      <c r="D222">
-        <v>406000</v>
+      <c r="D222" s="5">
+        <v>459717000</v>
       </c>
       <c r="E222" s="2">
         <v>42849</v>
@@ -7575,8 +7588,8 @@
       <c r="C223">
         <v>0</v>
       </c>
-      <c r="D223">
-        <v>118000</v>
+      <c r="D223" s="5">
+        <v>198136000</v>
       </c>
       <c r="E223" s="2">
         <v>43364</v>
@@ -7607,8 +7620,8 @@
       <c r="C224">
         <v>0</v>
       </c>
-      <c r="D224">
-        <v>607000</v>
+      <c r="D224" s="5">
+        <v>642735000</v>
       </c>
       <c r="E224" s="2">
         <v>43504</v>
@@ -7639,8 +7652,8 @@
       <c r="C225">
         <v>0</v>
       </c>
-      <c r="D225">
-        <v>509000</v>
+      <c r="D225" s="5">
+        <v>553737000</v>
       </c>
       <c r="E225" s="2">
         <v>42915</v>
@@ -7671,8 +7684,8 @@
       <c r="C226">
         <v>0</v>
       </c>
-      <c r="D226">
-        <v>906000</v>
+      <c r="D226" s="5">
+        <v>914843000</v>
       </c>
       <c r="E226" s="2">
         <v>44139</v>
@@ -7703,8 +7716,8 @@
       <c r="C227">
         <v>0</v>
       </c>
-      <c r="D227">
-        <v>969000</v>
+      <c r="D227" s="5">
+        <v>972019000</v>
       </c>
       <c r="E227" s="2">
         <v>43200</v>
@@ -7735,8 +7748,8 @@
       <c r="C228">
         <v>0</v>
       </c>
-      <c r="D228">
-        <v>811000</v>
+      <c r="D228" s="5">
+        <v>828636000</v>
       </c>
       <c r="E228" s="2">
         <v>44539</v>
@@ -7767,8 +7780,8 @@
       <c r="C229">
         <v>0</v>
       </c>
-      <c r="D229">
-        <v>868000</v>
+      <c r="D229" s="5">
+        <v>880027000</v>
       </c>
       <c r="E229" s="2">
         <v>43928</v>
@@ -7799,8 +7812,8 @@
       <c r="C230">
         <v>0</v>
       </c>
-      <c r="D230">
-        <v>501000</v>
+      <c r="D230" s="5">
+        <v>546211000</v>
       </c>
       <c r="E230" s="2">
         <v>42859</v>
@@ -7831,8 +7844,8 @@
       <c r="C231">
         <v>0</v>
       </c>
-      <c r="D231">
-        <v>380000</v>
+      <c r="D231" s="5">
+        <v>436404000</v>
       </c>
       <c r="E231" s="2">
         <v>44392</v>
@@ -7863,8 +7876,8 @@
       <c r="C232">
         <v>0</v>
       </c>
-      <c r="D232">
-        <v>484000</v>
+      <c r="D232" s="5">
+        <v>531091000</v>
       </c>
       <c r="E232" s="2">
         <v>43560</v>
@@ -7895,8 +7908,8 @@
       <c r="C233">
         <v>0</v>
       </c>
-      <c r="D233">
-        <v>536000</v>
+      <c r="D233" s="5">
+        <v>578118000</v>
       </c>
       <c r="E233" s="2">
         <v>44202</v>
@@ -7927,8 +7940,8 @@
       <c r="C234">
         <v>0</v>
       </c>
-      <c r="D234">
-        <v>820000</v>
+      <c r="D234" s="5">
+        <v>835927000</v>
       </c>
       <c r="E234" s="2">
         <v>44055</v>
@@ -7959,8 +7972,8 @@
       <c r="C235">
         <v>0</v>
       </c>
-      <c r="D235">
-        <v>159000</v>
+      <c r="D235" s="5">
+        <v>235906000</v>
       </c>
       <c r="E235" s="2">
         <v>43262</v>
@@ -7991,8 +8004,8 @@
       <c r="C236">
         <v>0</v>
       </c>
-      <c r="D236">
-        <v>605000</v>
+      <c r="D236" s="5">
+        <v>640503000</v>
       </c>
       <c r="E236" s="2">
         <v>43637</v>
@@ -8023,8 +8036,8 @@
       <c r="C237">
         <v>0</v>
       </c>
-      <c r="D237">
-        <v>907000</v>
+      <c r="D237" s="5">
+        <v>915391000</v>
       </c>
       <c r="E237" s="2">
         <v>42826</v>
@@ -8055,8 +8068,8 @@
       <c r="C238">
         <v>0</v>
       </c>
-      <c r="D238">
-        <v>230000</v>
+      <c r="D238" s="5">
+        <v>300218000</v>
       </c>
       <c r="E238" s="2">
         <v>42808</v>
@@ -8087,8 +8100,8 @@
       <c r="C239">
         <v>0</v>
       </c>
-      <c r="D239">
-        <v>295000</v>
+      <c r="D239" s="5">
+        <v>359077000</v>
       </c>
       <c r="E239" s="2">
         <v>43352</v>
@@ -8119,8 +8132,8 @@
       <c r="C240">
         <v>0</v>
       </c>
-      <c r="D240">
-        <v>844000</v>
+      <c r="D240" s="5">
+        <v>857993000</v>
       </c>
       <c r="E240" s="2">
         <v>44411</v>
@@ -8151,8 +8164,8 @@
       <c r="C241">
         <v>0</v>
       </c>
-      <c r="D241">
-        <v>655000</v>
+      <c r="D241" s="5">
+        <v>686681000</v>
       </c>
       <c r="E241" s="2">
         <v>44078</v>
@@ -8183,8 +8196,8 @@
       <c r="C242">
         <v>0</v>
       </c>
-      <c r="D242">
-        <v>966000</v>
+      <c r="D242" s="5">
+        <v>968918000</v>
       </c>
       <c r="E242" s="2">
         <v>44132</v>
@@ -8215,8 +8228,8 @@
       <c r="C243">
         <v>0</v>
       </c>
-      <c r="D243">
-        <v>646000</v>
+      <c r="D243" s="5">
+        <v>677875000</v>
       </c>
       <c r="E243" s="2">
         <v>43506</v>
@@ -8247,8 +8260,8 @@
       <c r="C244">
         <v>0</v>
       </c>
-      <c r="D244">
-        <v>950000</v>
+      <c r="D244" s="5">
+        <v>954400000</v>
       </c>
       <c r="E244" s="2">
         <v>44483</v>
@@ -8279,8 +8292,8 @@
       <c r="C245">
         <v>0</v>
       </c>
-      <c r="D245">
-        <v>829000</v>
+      <c r="D245" s="5">
+        <v>844164000</v>
       </c>
       <c r="E245" s="2">
         <v>43770</v>
@@ -8311,8 +8324,8 @@
       <c r="C246">
         <v>0</v>
       </c>
-      <c r="D246">
-        <v>678000</v>
+      <c r="D246" s="5">
+        <v>707201000</v>
       </c>
       <c r="E246" s="2">
         <v>43840</v>
@@ -8343,8 +8356,8 @@
       <c r="C247">
         <v>0</v>
       </c>
-      <c r="D247">
-        <v>198000</v>
+      <c r="D247" s="5">
+        <v>270989000</v>
       </c>
       <c r="E247" s="2">
         <v>44369</v>
@@ -8375,8 +8388,8 @@
       <c r="C248">
         <v>0</v>
       </c>
-      <c r="D248">
-        <v>221000</v>
+      <c r="D248" s="5">
+        <v>292180000</v>
       </c>
       <c r="E248" s="2">
         <v>43163</v>
@@ -8407,8 +8420,8 @@
       <c r="C249">
         <v>0</v>
       </c>
-      <c r="D249">
-        <v>864000</v>
+      <c r="D249" s="5">
+        <v>876727000</v>
       </c>
       <c r="E249" s="2">
         <v>43140</v>
@@ -8439,8 +8452,8 @@
       <c r="C250">
         <v>0</v>
       </c>
-      <c r="D250">
-        <v>341000</v>
+      <c r="D250" s="5">
+        <v>400532000</v>
       </c>
       <c r="E250" s="2">
         <v>43736</v>
@@ -8471,8 +8484,8 @@
       <c r="C251">
         <v>0</v>
       </c>
-      <c r="D251">
-        <v>690000</v>
+      <c r="D251" s="5">
+        <v>717792000</v>
       </c>
       <c r="E251" s="2">
         <v>43729</v>
@@ -8504,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>441000</v>
+        <v>491838000</v>
       </c>
       <c r="E252" s="2">
         <v>43893</v>
@@ -8536,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>465000</v>
+        <v>513414000</v>
       </c>
       <c r="E253" s="2">
         <v>42921</v>
@@ -8568,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>20000</v>
+        <v>109518000</v>
       </c>
       <c r="E254" s="2">
         <v>43249</v>
@@ -8600,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>824000</v>
+        <v>840090000</v>
       </c>
       <c r="E255" s="2">
         <v>43206</v>
@@ -8632,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>318000</v>
+        <v>380305000</v>
       </c>
       <c r="E256" s="2">
         <v>43628</v>
@@ -8664,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>344000</v>
+        <v>403420000</v>
       </c>
       <c r="E257" s="2">
         <v>43810</v>
@@ -8696,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>81000</v>
+        <v>164442000</v>
       </c>
       <c r="E258" s="2">
         <v>43523</v>
@@ -8728,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>628000</v>
+        <v>662164000</v>
       </c>
       <c r="E259" s="2">
         <v>44356</v>
@@ -8760,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>781000</v>
+        <v>800751000</v>
       </c>
       <c r="E260" s="2">
         <v>43487</v>
@@ -8792,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>516000</v>
+        <v>559937000</v>
       </c>
       <c r="E261" s="2">
         <v>43715</v>
@@ -8824,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>483000</v>
+        <v>529939000</v>
       </c>
       <c r="E262" s="2">
         <v>42958</v>
@@ -8856,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>774000</v>
+        <v>794896000</v>
       </c>
       <c r="E263" s="2">
         <v>43650</v>
@@ -8888,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>106000</v>
+        <v>187051000</v>
       </c>
       <c r="E264" s="2">
         <v>44474</v>
@@ -8920,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>546000</v>
+        <v>586827000</v>
       </c>
       <c r="E265" s="2">
         <v>44365</v>
@@ -8952,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>751000</v>
+        <v>773995000</v>
       </c>
       <c r="E266" s="2">
         <v>42758</v>
@@ -8984,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>373000</v>
+        <v>429677000</v>
       </c>
       <c r="E267" s="2">
         <v>44531</v>
@@ -9016,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>877000</v>
+        <v>888517000</v>
       </c>
       <c r="E268" s="2">
         <v>43754</v>
@@ -9048,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>462000</v>
+        <v>511134000</v>
       </c>
       <c r="E269" s="2">
         <v>44227</v>
@@ -9080,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>125000</v>
+        <v>204307000</v>
       </c>
       <c r="E270" s="2">
         <v>43159</v>
@@ -9112,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>977000</v>
+        <v>979201000</v>
       </c>
       <c r="E271" s="2">
         <v>42855</v>
@@ -9144,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>461000</v>
+        <v>510311000</v>
       </c>
       <c r="E272" s="2">
         <v>44360</v>
@@ -9176,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>755000</v>
+        <v>777510000</v>
       </c>
       <c r="E273" s="2">
         <v>43628</v>
@@ -9208,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>87000</v>
+        <v>170428000</v>
       </c>
       <c r="E274" s="2">
         <v>43214</v>
@@ -9240,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>811000</v>
+        <v>827956000</v>
       </c>
       <c r="E275" s="2">
         <v>43214</v>
@@ -9272,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>160000</v>
+        <v>236800000</v>
       </c>
       <c r="E276" s="2">
         <v>43433</v>
@@ -9304,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>134000</v>
+        <v>212461000</v>
       </c>
       <c r="E277" s="2">
         <v>43139</v>
@@ -9336,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>284000</v>
+        <v>348793000</v>
       </c>
       <c r="E278" s="2">
         <v>43188</v>
@@ -9368,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>430000</v>
+        <v>482237000</v>
       </c>
       <c r="E279" s="2">
         <v>43840</v>
@@ -9400,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>490000</v>
+        <v>536757000</v>
       </c>
       <c r="E280" s="2">
         <v>44422</v>
@@ -9432,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>434000</v>
+        <v>485463000</v>
       </c>
       <c r="E281" s="2">
         <v>43914</v>
@@ -9464,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>44000</v>
+        <v>131086000</v>
       </c>
       <c r="E282" s="2">
         <v>43713</v>
@@ -9496,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>601000</v>
+        <v>637328000</v>
       </c>
       <c r="E283" s="2">
         <v>43030</v>
@@ -9528,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>745000</v>
+        <v>767763000</v>
       </c>
       <c r="E284" s="2">
         <v>42747</v>
@@ -9560,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>979000</v>
+        <v>980878000</v>
       </c>
       <c r="E285" s="2">
         <v>44297</v>
@@ -9592,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>559000</v>
+        <v>598744000</v>
       </c>
       <c r="E286" s="2">
         <v>44302</v>
@@ -9624,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>933000</v>
+        <v>938682000</v>
       </c>
       <c r="E287" s="2">
         <v>44328</v>
@@ -9656,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>952000</v>
+        <v>956769000</v>
       </c>
       <c r="E288" s="2">
         <v>43055</v>
@@ -9688,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>220000</v>
+        <v>291156000</v>
       </c>
       <c r="E289" s="2">
         <v>42783</v>
@@ -9720,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>76000</v>
+        <v>159742000</v>
       </c>
       <c r="E290" s="2">
         <v>43608</v>
@@ -9752,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>178000</v>
+        <v>252696000</v>
       </c>
       <c r="E291" s="2">
         <v>43562</v>
@@ -9784,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>747000</v>
+        <v>769990000</v>
       </c>
       <c r="E292" s="2">
         <v>43671</v>
@@ -9816,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>268000</v>
+        <v>334872000</v>
       </c>
       <c r="E293" s="2">
         <v>44045</v>
@@ -9848,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>121000</v>
+        <v>201014000</v>
       </c>
       <c r="E294" s="2">
         <v>44313</v>
@@ -9880,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>944000</v>
+        <v>949049000</v>
       </c>
       <c r="E295" s="2">
         <v>43635</v>
@@ -9912,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>687000</v>
+        <v>715230000</v>
       </c>
       <c r="E296" s="2">
         <v>44152</v>
@@ -9944,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>959000</v>
+        <v>962362000</v>
       </c>
       <c r="E297" s="2">
         <v>42746</v>
@@ -9976,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>336000</v>
+        <v>396559000</v>
       </c>
       <c r="E298" s="2">
         <v>43123</v>
@@ -10008,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>200000</v>
+        <v>273032000</v>
       </c>
       <c r="E299" s="2">
         <v>43186</v>
@@ -10040,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>145000</v>
+        <v>223110000</v>
       </c>
       <c r="E300" s="2">
         <v>43447</v>
@@ -10072,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>944000</v>
+        <v>949040000</v>
       </c>
       <c r="E301" s="2">
         <v>44309</v>
@@ -10104,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>173000</v>
+        <v>247749000</v>
       </c>
       <c r="E302" s="2">
         <v>43054</v>
@@ -10136,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>804000</v>
+        <v>822117000</v>
       </c>
       <c r="E303" s="2">
         <v>44261</v>
@@ -10168,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>220000</v>
+        <v>290515000</v>
       </c>
       <c r="E304" s="2">
         <v>43025</v>
@@ -10200,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>864000</v>
+        <v>876627000</v>
       </c>
       <c r="E305" s="2">
         <v>43022</v>
@@ -10232,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>66000</v>
+        <v>151007000</v>
       </c>
       <c r="E306" s="2">
         <v>43396</v>
@@ -10264,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>388000</v>
+        <v>443276000</v>
       </c>
       <c r="E307" s="2">
         <v>43606</v>
@@ -10296,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>408000</v>
+        <v>461738000</v>
       </c>
       <c r="E308" s="2">
         <v>44304</v>
@@ -10328,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>976000</v>
+        <v>978618000</v>
       </c>
       <c r="E309" s="2">
         <v>43813</v>
@@ -10360,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>899000</v>
+        <v>907955000</v>
       </c>
       <c r="E310" s="2">
         <v>43264</v>
@@ -10392,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>391000</v>
+        <v>446007000</v>
       </c>
       <c r="E311" s="2">
         <v>43014</v>
@@ -10424,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>430000</v>
+        <v>482215000</v>
       </c>
       <c r="E312" s="2">
         <v>43779</v>
@@ -10456,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>718000</v>
+        <v>743631000</v>
       </c>
       <c r="E313" s="2">
         <v>44141</v>
@@ -10488,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>644000</v>
+        <v>676103000</v>
       </c>
       <c r="E314" s="2">
         <v>43543</v>
@@ -10520,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>895000</v>
+        <v>904737000</v>
       </c>
       <c r="E315" s="2">
         <v>43148</v>
@@ -10552,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>690000</v>
+        <v>718474000</v>
       </c>
       <c r="E316" s="2">
         <v>43288</v>
@@ -10584,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>520000</v>
+        <v>563781000</v>
       </c>
       <c r="E317" s="2">
         <v>43558</v>
@@ -10616,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>902000</v>
+        <v>910616000</v>
       </c>
       <c r="E318" s="2">
         <v>44330</v>
@@ -10648,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>338000</v>
+        <v>397893000</v>
       </c>
       <c r="E319" s="2">
         <v>44397</v>
@@ -10680,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>374000</v>
+        <v>430702000</v>
       </c>
       <c r="E320" s="2">
         <v>42928</v>
@@ -10712,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>358000</v>
+        <v>416289000</v>
       </c>
       <c r="E321" s="2">
         <v>42866</v>
@@ -10744,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>495000</v>
+        <v>540561000</v>
       </c>
       <c r="E322" s="2">
         <v>43257</v>
@@ -10776,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>44000</v>
+        <v>131256000</v>
       </c>
       <c r="E323" s="2">
         <v>42739</v>
@@ -10808,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>458000</v>
+        <v>507616000</v>
       </c>
       <c r="E324" s="2">
         <v>43693</v>
@@ -10840,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>323000</v>
+        <v>384956000</v>
       </c>
       <c r="E325" s="2">
         <v>44483</v>
@@ -10872,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>251000</v>
+        <v>318867000</v>
       </c>
       <c r="E326" s="2">
         <v>44133</v>
@@ -10904,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>255000</v>
+        <v>322684000</v>
       </c>
       <c r="E327" s="2">
         <v>43305</v>
@@ -10936,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>800000</v>
+        <v>817790000</v>
       </c>
       <c r="E328" s="2">
         <v>42771</v>
@@ -10968,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>392000</v>
+        <v>447032000</v>
       </c>
       <c r="E329" s="2">
         <v>43918</v>
@@ -11000,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>981000</v>
+        <v>982669000</v>
       </c>
       <c r="E330" s="2">
         <v>44082</v>
@@ -11032,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>419000</v>
+        <v>471477000</v>
       </c>
       <c r="E331" s="2">
         <v>44316</v>
@@ -11064,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>701000</v>
+        <v>727937000</v>
       </c>
       <c r="E332" s="2">
         <v>44307</v>
@@ -11096,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>312000</v>
+        <v>374835000</v>
       </c>
       <c r="E333" s="2">
         <v>44076</v>
@@ -11128,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>828000</v>
+        <v>843846000</v>
       </c>
       <c r="E334" s="2">
         <v>43743</v>
@@ -11160,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>221000</v>
+        <v>291763000</v>
       </c>
       <c r="E335" s="2">
         <v>43432</v>
@@ -11192,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>282000</v>
+        <v>347668000</v>
       </c>
       <c r="E336" s="2">
         <v>43336</v>
@@ -11224,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>300000</v>
+        <v>363267000</v>
       </c>
       <c r="E337" s="2">
         <v>44177</v>
@@ -11256,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>138000</v>
+        <v>216421000</v>
       </c>
       <c r="E338" s="2">
         <v>43831</v>
@@ -11288,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>753000</v>
+        <v>775536000</v>
       </c>
       <c r="E339" s="2">
         <v>44411</v>
@@ -11320,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>437000</v>
+        <v>488364000</v>
       </c>
       <c r="E340" s="2">
         <v>44133</v>
@@ -11352,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>135000</v>
+        <v>213351000</v>
       </c>
       <c r="E341" s="2">
         <v>43166</v>
@@ -11384,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>541000</v>
+        <v>582592000</v>
       </c>
       <c r="E342" s="2">
         <v>42953</v>
@@ -11416,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>493000</v>
+        <v>539490000</v>
       </c>
       <c r="E343" s="2">
         <v>42752</v>
@@ -11448,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>510000</v>
+        <v>554726000</v>
       </c>
       <c r="E344" s="2">
         <v>42876</v>
@@ -11480,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>715000</v>
+        <v>741250000</v>
       </c>
       <c r="E345" s="2">
         <v>43399</v>
@@ -11512,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D346">
-        <v>76000</v>
+        <v>159878000</v>
       </c>
       <c r="E346" s="2">
         <v>44424</v>
@@ -11544,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>497000</v>
+        <v>542748000</v>
       </c>
       <c r="E347" s="2">
         <v>43329</v>
@@ -11576,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>61000</v>
+        <v>146444000</v>
       </c>
       <c r="E348" s="2">
         <v>42791</v>
@@ -11608,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>976000</v>
+        <v>978483000</v>
       </c>
       <c r="E349" s="2">
         <v>44283</v>
@@ -11640,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>663000</v>
+        <v>693909000</v>
       </c>
       <c r="E350" s="2">
         <v>43561</v>
@@ -11672,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>177000</v>
+        <v>252267000</v>
       </c>
       <c r="E351" s="2">
         <v>43708</v>
@@ -11704,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>920000</v>
+        <v>927607000</v>
       </c>
       <c r="E352" s="2">
         <v>43902</v>
@@ -11736,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>183000</v>
+        <v>257490000</v>
       </c>
       <c r="E353" s="2">
         <v>42917</v>
@@ -11768,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>361000</v>
+        <v>419130000</v>
       </c>
       <c r="E354" s="2">
         <v>43685</v>
@@ -11800,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>57000</v>
+        <v>142739000</v>
       </c>
       <c r="E355" s="2">
         <v>43262</v>
@@ -11832,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>378000</v>
+        <v>434138000</v>
       </c>
       <c r="E356" s="2">
         <v>43182</v>
@@ -11864,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>734000</v>
+        <v>758268000</v>
       </c>
       <c r="E357" s="2">
         <v>42785</v>
@@ -11896,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>131000</v>
+        <v>209683000</v>
       </c>
       <c r="E358" s="2">
         <v>43619</v>
@@ -11928,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>779000</v>
+        <v>799286000</v>
       </c>
       <c r="E359" s="2">
         <v>42818</v>
@@ -11960,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="D360">
-        <v>433000</v>
+        <v>484374000</v>
       </c>
       <c r="E360" s="2">
         <v>42895</v>
@@ -11992,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="D361">
-        <v>804000</v>
+        <v>822095000</v>
       </c>
       <c r="E361" s="2">
         <v>43825</v>
@@ -12024,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>182000</v>
+        <v>256535000</v>
       </c>
       <c r="E362" s="2">
         <v>43882</v>
@@ -12056,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="D363">
-        <v>903000</v>
+        <v>912112000</v>
       </c>
       <c r="E363" s="2">
         <v>44310</v>
@@ -12088,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="D364">
-        <v>730000</v>
+        <v>754536000</v>
       </c>
       <c r="E364" s="2">
         <v>44408</v>
@@ -12120,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>58000</v>
+        <v>143399000</v>
       </c>
       <c r="E365" s="2">
         <v>43637</v>
@@ -12152,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>484000</v>
+        <v>531324000</v>
       </c>
       <c r="E366" s="2">
         <v>44239</v>
@@ -12184,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>75000</v>
+        <v>158978000</v>
       </c>
       <c r="E367" s="2">
         <v>43063</v>
@@ -12216,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>725000</v>
+        <v>750214000</v>
       </c>
       <c r="E368" s="2">
         <v>43722</v>
@@ -12248,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="D369">
-        <v>370000</v>
+        <v>426935000</v>
       </c>
       <c r="E369" s="2">
         <v>44427</v>
@@ -12280,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>776000</v>
+        <v>796738000</v>
       </c>
       <c r="E370" s="2">
         <v>42853</v>
@@ -12312,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>884000</v>
+        <v>894281000</v>
       </c>
       <c r="E371" s="2">
         <v>44177</v>
@@ -12344,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>185000</v>
+        <v>258728000</v>
       </c>
       <c r="E372" s="2">
         <v>43029</v>
@@ -12376,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="D373">
-        <v>812000</v>
+        <v>829338000</v>
       </c>
       <c r="E373" s="2">
         <v>42814</v>
@@ -12408,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>392000</v>
+        <v>447186000</v>
       </c>
       <c r="E374" s="2">
         <v>43715</v>
@@ -12440,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="D375">
-        <v>388000</v>
+        <v>444052000</v>
       </c>
       <c r="E375" s="2">
         <v>44329</v>
@@ -12472,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="D376">
-        <v>658000</v>
+        <v>688892000</v>
       </c>
       <c r="E376" s="2">
         <v>43344</v>
@@ -12504,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="D377">
-        <v>974000</v>
+        <v>976714000</v>
       </c>
       <c r="E377" s="2">
         <v>43152</v>
@@ -12536,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>686000</v>
+        <v>714239000</v>
       </c>
       <c r="E378" s="2">
         <v>43306</v>
@@ -12568,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>229000</v>
+        <v>298958000</v>
       </c>
       <c r="E379" s="2">
         <v>43150</v>
@@ -12600,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>10000</v>
+        <v>100393000</v>
       </c>
       <c r="E380" s="2">
         <v>43682</v>
@@ -12632,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="D381">
-        <v>120000</v>
+        <v>200254000</v>
       </c>
       <c r="E381" s="2">
         <v>42929</v>
@@ -12664,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>302000</v>
+        <v>365220000</v>
       </c>
       <c r="E382" s="2">
         <v>43061</v>
@@ -12696,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="D383">
-        <v>78000</v>
+        <v>162037000</v>
       </c>
       <c r="E383" s="2">
         <v>44157</v>
@@ -12728,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="D384">
-        <v>76000</v>
+        <v>159677000</v>
       </c>
       <c r="E384" s="2">
         <v>43139</v>
@@ -12760,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>947000</v>
+        <v>951708000</v>
       </c>
       <c r="E385" s="2">
         <v>43963</v>
@@ -12792,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>160000</v>
+        <v>236504000</v>
       </c>
       <c r="E386" s="2">
         <v>43553</v>
@@ -12824,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>341000</v>
+        <v>400532000</v>
       </c>
       <c r="E387" s="2">
         <v>42937</v>
@@ -12856,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="D388">
-        <v>966000</v>
+        <v>969244000</v>
       </c>
       <c r="E388" s="2">
         <v>43399</v>
@@ -12888,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>538000</v>
+        <v>580328000</v>
       </c>
       <c r="E389" s="2">
         <v>43133</v>
@@ -12920,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="D390">
-        <v>696000</v>
+        <v>723415000</v>
       </c>
       <c r="E390" s="2">
         <v>44144</v>
@@ -12952,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>295000</v>
+        <v>358837000</v>
       </c>
       <c r="E391" s="2">
         <v>44373</v>
@@ -12984,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>669000</v>
+        <v>699454000</v>
       </c>
       <c r="E392" s="2">
         <v>43992</v>
@@ -13016,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>171000</v>
+        <v>246751000</v>
       </c>
       <c r="E393" s="2">
         <v>43642</v>
@@ -13048,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>353000</v>
+        <v>411480000</v>
       </c>
       <c r="E394" s="2">
         <v>44512</v>
@@ -13080,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="D395">
-        <v>908000</v>
+        <v>915950000</v>
       </c>
       <c r="E395" s="2">
         <v>43088</v>
@@ -13112,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>732000</v>
+        <v>756597000</v>
       </c>
       <c r="E396" s="2">
         <v>42883</v>
@@ -13144,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>468000</v>
+        <v>516001000</v>
       </c>
       <c r="E397" s="2">
         <v>43124</v>
@@ -13176,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="D398">
-        <v>463000</v>
+        <v>512101000</v>
       </c>
       <c r="E398" s="2">
         <v>43625</v>
@@ -13208,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>745000</v>
+        <v>768061000</v>
       </c>
       <c r="E399" s="2">
         <v>44094</v>
@@ -13240,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>404000</v>
+        <v>458067000</v>
       </c>
       <c r="E400" s="2">
         <v>42911</v>
@@ -13272,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>438000</v>
+        <v>489251000</v>
       </c>
       <c r="E401" s="2">
         <v>44456</v>
@@ -13304,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="D402">
-        <v>572000</v>
+        <v>610939000</v>
       </c>
       <c r="E402" s="2">
         <v>43646</v>
@@ -13336,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>564000</v>
+        <v>603774000</v>
       </c>
       <c r="E403" s="2">
         <v>44208</v>
@@ -13368,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="D404">
-        <v>466000</v>
+        <v>514394000</v>
       </c>
       <c r="E404" s="2">
         <v>44012</v>
@@ -13400,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>608000</v>
+        <v>644046000</v>
       </c>
       <c r="E405" s="2">
         <v>42901</v>
@@ -13432,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="D406">
-        <v>158000</v>
+        <v>234879000</v>
       </c>
       <c r="E406" s="2">
         <v>44244</v>
@@ -13464,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="D407">
-        <v>742000</v>
+        <v>765016000</v>
       </c>
       <c r="E407" s="2">
         <v>43353</v>
@@ -13496,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>171000</v>
+        <v>246299000</v>
       </c>
       <c r="E408" s="2">
         <v>43733</v>
@@ -13528,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>811000</v>
+        <v>827735000</v>
       </c>
       <c r="E409" s="2">
         <v>43873</v>
@@ -13560,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="D410">
-        <v>577000</v>
+        <v>615434000</v>
       </c>
       <c r="E410" s="2">
         <v>43367</v>
@@ -13592,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="D411">
-        <v>936000</v>
+        <v>942238000</v>
       </c>
       <c r="E411" s="2">
         <v>43199</v>
@@ -13624,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="D412">
-        <v>423000</v>
+        <v>475621000</v>
       </c>
       <c r="E412" s="2">
         <v>43484</v>
@@ -13656,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>662000</v>
+        <v>692533000</v>
       </c>
       <c r="E413" s="2">
         <v>44072</v>
@@ -13688,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="D414">
-        <v>83000</v>
+        <v>166114000</v>
       </c>
       <c r="E414" s="2">
         <v>43928</v>
@@ -13720,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>310000</v>
+        <v>373087000</v>
       </c>
       <c r="E415" s="2">
         <v>43630</v>
@@ -13752,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="D416">
-        <v>171000</v>
+        <v>245990000</v>
       </c>
       <c r="E416" s="2">
         <v>44224</v>
@@ -13784,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>672000</v>
+        <v>701639000</v>
       </c>
       <c r="E417" s="2">
         <v>43088</v>
@@ -13816,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <v>130000</v>
+        <v>208985000</v>
       </c>
       <c r="E418" s="2">
         <v>44360</v>
@@ -13848,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>504000</v>
+        <v>548640000</v>
       </c>
       <c r="E419" s="2">
         <v>43459</v>
@@ -13880,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>260000</v>
+        <v>327405000</v>
       </c>
       <c r="E420" s="2">
         <v>42775</v>
@@ -13912,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>176000</v>
+        <v>251052000</v>
       </c>
       <c r="E421" s="2">
         <v>43712</v>
@@ -13944,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>815000</v>
+        <v>832012000</v>
       </c>
       <c r="E422" s="2">
         <v>43599</v>
@@ -13976,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="D423">
-        <v>251000</v>
+        <v>319440000</v>
       </c>
       <c r="E423" s="2">
         <v>43233</v>
@@ -14008,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>89000</v>
+        <v>171885000</v>
       </c>
       <c r="E424" s="2">
         <v>43712</v>
@@ -14040,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>398000</v>
+        <v>453180000</v>
       </c>
       <c r="E425" s="2">
         <v>44013</v>
@@ -14072,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="D426">
-        <v>219000</v>
+        <v>289646000</v>
       </c>
       <c r="E426" s="2">
         <v>44444</v>
@@ -14104,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>717000</v>
+        <v>742617000</v>
       </c>
       <c r="E427" s="2">
         <v>42800</v>
@@ -14136,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>623000</v>
+        <v>656829000</v>
       </c>
       <c r="E428" s="2">
         <v>43797</v>
@@ -14168,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>949000</v>
+        <v>954047000</v>
       </c>
       <c r="E429" s="2">
         <v>44495</v>
@@ -14200,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>853000</v>
+        <v>866208000</v>
       </c>
       <c r="E430" s="2">
         <v>43369</v>
@@ -14232,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="D431">
-        <v>313000</v>
+        <v>375494000</v>
       </c>
       <c r="E431" s="2">
         <v>44402</v>
@@ -14264,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="D432">
-        <v>862000</v>
+        <v>874884000</v>
       </c>
       <c r="E432" s="2">
         <v>43350</v>
@@ -14296,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>260000</v>
+        <v>327690000</v>
       </c>
       <c r="E433" s="2">
         <v>44082</v>
@@ -14328,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="D434">
-        <v>855000</v>
+        <v>868106000</v>
       </c>
       <c r="E434" s="2">
         <v>43484</v>
@@ -14360,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <v>154000</v>
+        <v>230501000</v>
       </c>
       <c r="E435" s="2">
         <v>43896</v>
@@ -14392,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <v>929000</v>
+        <v>935764000</v>
       </c>
       <c r="E436" s="2">
         <v>43959</v>
@@ -14424,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>569000</v>
+        <v>608002000</v>
       </c>
       <c r="E437" s="2">
         <v>42999</v>
@@ -14456,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="D438">
-        <v>463000</v>
+        <v>511714000</v>
       </c>
       <c r="E438" s="2">
         <v>43070</v>
@@ -14488,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="D439">
-        <v>409000</v>
+        <v>462652000</v>
       </c>
       <c r="E439" s="2">
         <v>43676</v>
@@ -14520,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>384000</v>
+        <v>439725000</v>
       </c>
       <c r="E440" s="2">
         <v>43026</v>
@@ -14552,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>166000</v>
+        <v>241508000</v>
       </c>
       <c r="E441" s="2">
         <v>44250</v>
@@ -14584,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <v>635000</v>
+        <v>668084000</v>
       </c>
       <c r="E442" s="2">
         <v>43912</v>
@@ -14616,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="D443">
-        <v>362000</v>
+        <v>420270000</v>
       </c>
       <c r="E443" s="2">
         <v>42882</v>
@@ -14648,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="D444">
-        <v>882000</v>
+        <v>892392000</v>
       </c>
       <c r="E444" s="2">
         <v>44316</v>
@@ -14680,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>132000</v>
+        <v>211300000</v>
       </c>
       <c r="E445" s="2">
         <v>44196</v>
@@ -14712,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>473000</v>
+        <v>521183000</v>
       </c>
       <c r="E446" s="2">
         <v>44305</v>
@@ -14744,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <v>590000</v>
+        <v>626819000</v>
       </c>
       <c r="E447" s="2">
         <v>42747</v>
@@ -14776,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <v>732000</v>
+        <v>756076000</v>
       </c>
       <c r="E448" s="2">
         <v>42911</v>
@@ -14808,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="D449">
-        <v>659000</v>
+        <v>689697000</v>
       </c>
       <c r="E449" s="2">
         <v>43013</v>
@@ -14840,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>432000</v>
+        <v>483879000</v>
       </c>
       <c r="E450" s="2">
         <v>42894</v>
@@ -14872,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>734000</v>
+        <v>758385000</v>
       </c>
       <c r="E451" s="2">
         <v>43918</v>
@@ -14904,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <v>713000</v>
+        <v>738995000</v>
       </c>
       <c r="E452" s="2">
         <v>44491</v>
@@ -14936,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>388000</v>
+        <v>443420000</v>
       </c>
       <c r="E453" s="2">
         <v>44065</v>
@@ -14968,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="D454">
-        <v>434000</v>
+        <v>485213000</v>
       </c>
       <c r="E454" s="2">
         <v>42849</v>
@@ -15000,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>361000</v>
+        <v>419055000</v>
       </c>
       <c r="E455" s="2">
         <v>44374</v>
@@ -15032,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <v>780000</v>
+        <v>799779000</v>
       </c>
       <c r="E456" s="2">
         <v>43361</v>
@@ -15064,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>152000</v>
+        <v>228682000</v>
       </c>
       <c r="E457" s="2">
         <v>43583</v>
@@ -15096,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="D458">
-        <v>817000</v>
+        <v>833967000</v>
       </c>
       <c r="E458" s="2">
         <v>44047</v>
@@ -15128,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="D459">
-        <v>592000</v>
+        <v>629312000</v>
       </c>
       <c r="E459" s="2">
         <v>43811</v>
@@ -15160,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="D460">
-        <v>377000</v>
+        <v>434032000</v>
       </c>
       <c r="E460" s="2">
         <v>44325</v>
@@ -15192,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="D461">
-        <v>943000</v>
+        <v>948171000</v>
       </c>
       <c r="E461" s="2">
         <v>43094</v>
@@ -15224,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="D462">
-        <v>958000</v>
+        <v>962031000</v>
       </c>
       <c r="E462" s="2">
         <v>43149</v>
@@ -15256,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <v>969000</v>
+        <v>971745000</v>
       </c>
       <c r="E463" s="2">
         <v>42984</v>
@@ -15288,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>110000</v>
+        <v>190812000</v>
       </c>
       <c r="E464" s="2">
         <v>43198</v>
@@ -15320,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>496000</v>
+        <v>541505000</v>
       </c>
       <c r="E465" s="2">
         <v>43679</v>
@@ -15352,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>922000</v>
+        <v>928758000</v>
       </c>
       <c r="E466" s="2">
         <v>42941</v>
@@ -15384,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>19000</v>
+        <v>107980000</v>
       </c>
       <c r="E467" s="2">
         <v>44341</v>
@@ -15416,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>307000</v>
+        <v>369965000</v>
       </c>
       <c r="E468" s="2">
         <v>44216</v>
@@ -15448,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="D469">
-        <v>465000</v>
+        <v>513555000</v>
       </c>
       <c r="E469" s="2">
         <v>44133</v>
@@ -15480,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="D470">
-        <v>285000</v>
+        <v>350240000</v>
       </c>
       <c r="E470" s="2">
         <v>44482</v>
@@ -15512,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>576000</v>
+        <v>614366000</v>
       </c>
       <c r="E471" s="2">
         <v>43760</v>
@@ -15544,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <v>541000</v>
+        <v>582588000</v>
       </c>
       <c r="E472" s="2">
         <v>44001</v>
@@ -15576,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>846000</v>
+        <v>859696000</v>
       </c>
       <c r="E473" s="2">
         <v>43250</v>
@@ -15608,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="D474">
-        <v>247000</v>
+        <v>315574000</v>
       </c>
       <c r="E474" s="2">
         <v>44410</v>
@@ -15640,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>759000</v>
+        <v>780471000</v>
       </c>
       <c r="E475" s="2">
         <v>44283</v>
@@ -15672,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <v>499000</v>
+        <v>544159000</v>
       </c>
       <c r="E476" s="2">
         <v>43908</v>
@@ -15704,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>966000</v>
+        <v>968744000</v>
       </c>
       <c r="E477" s="2">
         <v>43088</v>
@@ -15736,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>860000</v>
+        <v>872460000</v>
       </c>
       <c r="E478" s="2">
         <v>43797</v>
@@ -15768,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>30000</v>
+        <v>118506000</v>
       </c>
       <c r="E479" s="2">
         <v>43397</v>
@@ -15800,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="D480">
-        <v>406000</v>
+        <v>459605000</v>
       </c>
       <c r="E480" s="2">
         <v>43102</v>
@@ -15832,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="D481">
-        <v>262000</v>
+        <v>329545000</v>
       </c>
       <c r="E481" s="2">
         <v>43609</v>
@@ -15864,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="D482">
-        <v>493000</v>
+        <v>539241000</v>
       </c>
       <c r="E482" s="2">
         <v>43880</v>
@@ -15896,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>996000</v>
+        <v>996590000</v>
       </c>
       <c r="E483" s="2">
         <v>44335</v>
@@ -15928,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>583000</v>
+        <v>621315000</v>
       </c>
       <c r="E484" s="2">
         <v>43436</v>
@@ -15960,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>78000</v>
+        <v>162119000</v>
       </c>
       <c r="E485" s="2">
         <v>43095</v>
@@ -15992,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <v>750000</v>
+        <v>772637000</v>
       </c>
       <c r="E486" s="2">
         <v>43293</v>
@@ -16024,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>209000</v>
+        <v>280758000</v>
       </c>
       <c r="E487" s="2">
         <v>43782</v>
@@ -16056,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <v>468000</v>
+        <v>516479000</v>
       </c>
       <c r="E488" s="2">
         <v>43883</v>
@@ -16088,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="D489">
-        <v>640000</v>
+        <v>672347000</v>
       </c>
       <c r="E489" s="2">
         <v>43346</v>
@@ -16120,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <v>914000</v>
+        <v>921516000</v>
       </c>
       <c r="E490" s="2">
         <v>44271</v>
@@ -16152,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="D491">
-        <v>348000</v>
+        <v>407153000</v>
       </c>
       <c r="E491" s="2">
         <v>43508</v>
@@ -16184,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="D492">
-        <v>668000</v>
+        <v>698539000</v>
       </c>
       <c r="E492" s="2">
         <v>43757</v>
@@ -16216,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>45000</v>
+        <v>131790000</v>
       </c>
       <c r="E493" s="2">
         <v>44202</v>
@@ -16248,7 +16261,7 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <v>72000</v>
+        <v>156183000</v>
       </c>
       <c r="E494" s="2">
         <v>44350</v>
@@ -16280,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>431000</v>
+        <v>482873000</v>
       </c>
       <c r="E495" s="2">
         <v>43598</v>
@@ -16312,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="D496">
-        <v>594000</v>
+        <v>630835000</v>
       </c>
       <c r="E496" s="2">
         <v>42793</v>
@@ -16344,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="D497">
-        <v>291000</v>
+        <v>355037000</v>
       </c>
       <c r="E497" s="2">
         <v>44115</v>
@@ -16376,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>745000</v>
+        <v>768395000</v>
       </c>
       <c r="E498" s="2">
         <v>43030</v>
@@ -16408,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>328000</v>
+        <v>388796000</v>
       </c>
       <c r="E499" s="2">
         <v>43797</v>
@@ -16440,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>278000</v>
+        <v>343189000</v>
       </c>
       <c r="E500" s="2">
         <v>44369</v>
@@ -16472,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>699000</v>
+        <v>726325000</v>
       </c>
       <c r="E501" s="2">
         <v>43847</v>
@@ -16504,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>712000</v>
+        <v>737751000</v>
       </c>
       <c r="E502" s="2">
         <v>44312</v>
@@ -16536,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>976000</v>
+        <v>978567000</v>
       </c>
       <c r="E503" s="2">
         <v>43510</v>
@@ -16568,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>141000</v>
+        <v>219470000</v>
       </c>
       <c r="E504" s="2">
         <v>42938</v>
@@ -16600,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="D505">
-        <v>105000</v>
+        <v>186722000</v>
       </c>
       <c r="E505" s="2">
         <v>43516</v>
@@ -16632,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <v>833000</v>
+        <v>848562000</v>
       </c>
       <c r="E506" s="2">
         <v>44254</v>
@@ -16664,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>283000</v>
+        <v>348629000</v>
       </c>
       <c r="E507" s="2">
         <v>43204</v>
@@ -16696,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>907000</v>
+        <v>915588000</v>
       </c>
       <c r="E508" s="2">
         <v>44485</v>
@@ -16728,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>576000</v>
+        <v>614442000</v>
       </c>
       <c r="E509" s="2">
         <v>43005</v>
@@ -16760,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>606000</v>
+        <v>641548000</v>
       </c>
       <c r="E510" s="2">
         <v>44009</v>
@@ -16792,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>15000</v>
+        <v>104235000</v>
       </c>
       <c r="E511" s="2">
         <v>44194</v>
@@ -16824,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>571000</v>
+        <v>609743000</v>
       </c>
       <c r="E512" s="2">
         <v>43173</v>
@@ -16856,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>872000</v>
+        <v>883449000</v>
       </c>
       <c r="E513" s="2">
         <v>44093</v>
@@ -16888,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>994000</v>
+        <v>994436000</v>
       </c>
       <c r="E514" s="2">
         <v>44408</v>
@@ -16920,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="D515">
-        <v>387000</v>
+        <v>442540000</v>
       </c>
       <c r="E515" s="2">
         <v>43338</v>
@@ -16952,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>176000</v>
+        <v>251171000</v>
       </c>
       <c r="E516" s="2">
         <v>43213</v>
@@ -16984,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>905000</v>
+        <v>913430000</v>
       </c>
       <c r="E517" s="2">
         <v>43304</v>
@@ -17016,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>420000</v>
+        <v>472941000</v>
       </c>
       <c r="E518" s="2">
         <v>43660</v>
@@ -17048,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>458000</v>
+        <v>507052000</v>
       </c>
       <c r="E519" s="2">
         <v>44354</v>
@@ -17080,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>474000</v>
+        <v>522250000</v>
       </c>
       <c r="E520" s="2">
         <v>43345</v>
@@ -17112,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>552000</v>
+        <v>592692000</v>
       </c>
       <c r="E521" s="2">
         <v>44483</v>
@@ -17144,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="D522">
-        <v>70000</v>
+        <v>154575000</v>
       </c>
       <c r="E522" s="2">
         <v>44151</v>
@@ -17176,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>25000</v>
+        <v>113700000</v>
       </c>
       <c r="E523" s="2">
         <v>43775</v>
@@ -17208,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>769000</v>
+        <v>790380000</v>
       </c>
       <c r="E524" s="2">
         <v>43981</v>
@@ -17240,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>636000</v>
+        <v>669369000</v>
       </c>
       <c r="E525" s="2">
         <v>44497</v>
@@ -17272,7 +17285,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>400000</v>
+        <v>454741000</v>
       </c>
       <c r="E526" s="2">
         <v>42969</v>
@@ -17304,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>658000</v>
+        <v>689080000</v>
       </c>
       <c r="E527" s="2">
         <v>43629</v>
@@ -17336,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>716000</v>
+        <v>741515000</v>
       </c>
       <c r="E528" s="2">
         <v>43326</v>
@@ -17368,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>298000</v>
+        <v>362016000</v>
       </c>
       <c r="E529" s="2">
         <v>44432</v>
@@ -17400,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>398000</v>
+        <v>452778000</v>
       </c>
       <c r="E530" s="2">
         <v>43672</v>
@@ -17432,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>255000</v>
+        <v>322667000</v>
       </c>
       <c r="E531" s="2">
         <v>43355</v>
@@ -17464,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>147000</v>
+        <v>224308000</v>
       </c>
       <c r="E532" s="2">
         <v>42926</v>
@@ -17496,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>596000</v>
+        <v>632623000</v>
       </c>
       <c r="E533" s="2">
         <v>44345</v>
@@ -17528,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>740000</v>
+        <v>763888000</v>
       </c>
       <c r="E534" s="2">
         <v>42966</v>
@@ -17560,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>612000</v>
+        <v>647068000</v>
       </c>
       <c r="E535" s="2">
         <v>43694</v>
@@ -17592,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>263000</v>
+        <v>329864000</v>
       </c>
       <c r="E536" s="2">
         <v>44237</v>
@@ -17624,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>645000</v>
+        <v>677273000</v>
       </c>
       <c r="E537" s="2">
         <v>43958</v>
@@ -17656,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>417000</v>
+        <v>469952000</v>
       </c>
       <c r="E538" s="2">
         <v>44255</v>
@@ -17688,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>452000</v>
+        <v>501888000</v>
       </c>
       <c r="E539" s="2">
         <v>43804</v>
@@ -17720,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>23000</v>
+        <v>111738000</v>
       </c>
       <c r="E540" s="2">
         <v>44092</v>
@@ -17752,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>781000</v>
+        <v>801132000</v>
       </c>
       <c r="E541" s="2">
         <v>43795</v>
@@ -17784,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>898000</v>
+        <v>907666000</v>
       </c>
       <c r="E542" s="2">
         <v>43594</v>
@@ -17816,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>299000</v>
+        <v>362443000</v>
       </c>
       <c r="E543" s="2">
         <v>44170</v>
@@ -17848,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>368000</v>
+        <v>425672000</v>
       </c>
       <c r="E544" s="2">
         <v>43323</v>
@@ -17880,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>497000</v>
+        <v>542341000</v>
       </c>
       <c r="E545" s="2">
         <v>43060</v>
@@ -17912,7 +17925,7 @@
         <v>0</v>
       </c>
       <c r="D546">
-        <v>404000</v>
+        <v>458012000</v>
       </c>
       <c r="E546" s="2">
         <v>42948</v>
@@ -17944,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>376000</v>
+        <v>432471000</v>
       </c>
       <c r="E547" s="2">
         <v>42905</v>
@@ -17976,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="D548">
-        <v>749000</v>
+        <v>771370000</v>
       </c>
       <c r="E548" s="2">
         <v>44019</v>
@@ -18008,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>657000</v>
+        <v>688208000</v>
       </c>
       <c r="E549" s="2">
         <v>43225</v>
@@ -18040,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>328000</v>
+        <v>388768000</v>
       </c>
       <c r="E550" s="2">
         <v>44400</v>
@@ -18072,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>638000</v>
+        <v>671114000</v>
       </c>
       <c r="E551" s="2">
         <v>43015</v>
@@ -18104,7 +18117,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>687000</v>
+        <v>715171000</v>
       </c>
       <c r="E552" s="2">
         <v>43658</v>
@@ -18136,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>446000</v>
+        <v>496065000</v>
       </c>
       <c r="E553" s="2">
         <v>44199</v>
@@ -18168,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>268000</v>
+        <v>334681000</v>
       </c>
       <c r="E554" s="2">
         <v>44034</v>
@@ -18200,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>864000</v>
+        <v>876615000</v>
       </c>
       <c r="E555" s="2">
         <v>42777</v>
@@ -18232,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>16000</v>
+        <v>105169000</v>
       </c>
       <c r="E556" s="2">
         <v>44119</v>
@@ -18264,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>722000</v>
+        <v>747372000</v>
       </c>
       <c r="E557" s="2">
         <v>44476</v>
@@ -18296,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>811000</v>
+        <v>828071000</v>
       </c>
       <c r="E558" s="2">
         <v>43158</v>
@@ -18328,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>219000</v>
+        <v>289853000</v>
       </c>
       <c r="E559" s="2">
         <v>44254</v>
@@ -18360,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>574000</v>
+        <v>613001000</v>
       </c>
       <c r="E560" s="2">
         <v>43776</v>
@@ -18392,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>982000</v>
+        <v>983881000</v>
       </c>
       <c r="E561" s="2">
         <v>43158</v>
@@ -18424,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>309000</v>
+        <v>371427000</v>
       </c>
       <c r="E562" s="2">
         <v>44522</v>
@@ -18456,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="D563">
-        <v>619000</v>
+        <v>653663000</v>
       </c>
       <c r="E563" s="2">
         <v>44408</v>
@@ -18488,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>420000</v>
+        <v>472343000</v>
       </c>
       <c r="E564" s="2">
         <v>44192</v>
@@ -18520,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <v>447000</v>
+        <v>496919000</v>
       </c>
       <c r="E565" s="2">
         <v>42740</v>
@@ -18552,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>755000</v>
+        <v>777440000</v>
       </c>
       <c r="E566" s="2">
         <v>43952</v>
@@ -18584,7 +18597,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>550000</v>
+        <v>590636000</v>
       </c>
       <c r="E567" s="2">
         <v>43549</v>
@@ -18616,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <v>285000</v>
+        <v>349707000</v>
       </c>
       <c r="E568" s="2">
         <v>43221</v>
@@ -18648,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>744000</v>
+        <v>767276000</v>
       </c>
       <c r="E569" s="2">
         <v>44292</v>
@@ -18680,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>564000</v>
+        <v>603327000</v>
       </c>
       <c r="E570" s="2">
         <v>43045</v>
@@ -18712,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="D571">
-        <v>315000</v>
+        <v>377135000</v>
       </c>
       <c r="E571" s="2">
         <v>42961</v>
@@ -18744,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>601000</v>
+        <v>637360000</v>
       </c>
       <c r="E572" s="2">
         <v>43835</v>
@@ -18776,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>745000</v>
+        <v>768013000</v>
       </c>
       <c r="E573" s="2">
         <v>43892</v>
@@ -18808,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>73000</v>
+        <v>157612000</v>
       </c>
       <c r="E574" s="2">
         <v>44160</v>
@@ -18840,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>174000</v>
+        <v>248894000</v>
       </c>
       <c r="E575" s="2">
         <v>43267</v>
@@ -18872,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>359000</v>
+        <v>417382000</v>
       </c>
       <c r="E576" s="2">
         <v>43942</v>
@@ -18904,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>257000</v>
+        <v>324323000</v>
       </c>
       <c r="E577" s="2">
         <v>44074</v>
@@ -18936,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>571000</v>
+        <v>609741000</v>
       </c>
       <c r="E578" s="2">
         <v>44497</v>
@@ -18968,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>59000</v>
+        <v>144165000</v>
       </c>
       <c r="E579" s="2">
         <v>44549</v>
@@ -19000,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>918000</v>
+        <v>925855000</v>
       </c>
       <c r="E580" s="2">
         <v>44114</v>
@@ -19032,7 +19045,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>738000</v>
+        <v>761881000</v>
       </c>
       <c r="E581" s="2">
         <v>43265</v>
@@ -19064,7 +19077,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>425000</v>
+        <v>477621000</v>
       </c>
       <c r="E582" s="2">
         <v>43540</v>
@@ -19096,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>160000</v>
+        <v>236718000</v>
       </c>
       <c r="E583" s="2">
         <v>43212</v>
@@ -19128,7 +19141,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>72000</v>
+        <v>156464000</v>
       </c>
       <c r="E584" s="2">
         <v>43428</v>
@@ -19160,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>742000</v>
+        <v>765281000</v>
       </c>
       <c r="E585" s="2">
         <v>43021</v>
@@ -19192,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>571000</v>
+        <v>609854000</v>
       </c>
       <c r="E586" s="2">
         <v>44016</v>
@@ -19224,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <v>421000</v>
+        <v>473551000</v>
       </c>
       <c r="E587" s="2">
         <v>43021</v>
@@ -19256,7 +19269,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>321000</v>
+        <v>382527000</v>
       </c>
       <c r="E588" s="2">
         <v>44159</v>
@@ -19288,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>64000</v>
+        <v>148753000</v>
       </c>
       <c r="E589" s="2">
         <v>43491</v>
@@ -19320,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>761000</v>
+        <v>782574000</v>
       </c>
       <c r="E590" s="2">
         <v>43550</v>
@@ -19352,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>219000</v>
+        <v>289733000</v>
       </c>
       <c r="E591" s="2">
         <v>44487</v>
@@ -19384,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>275000</v>
+        <v>340937000</v>
       </c>
       <c r="E592" s="2">
         <v>44017</v>
@@ -19416,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>241000</v>
+        <v>309592000</v>
       </c>
       <c r="E593" s="2">
         <v>42822</v>
@@ -19448,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>571000</v>
+        <v>609737000</v>
       </c>
       <c r="E594" s="2">
         <v>44251</v>
@@ -19480,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>297000</v>
+        <v>361332000</v>
       </c>
       <c r="E595" s="2">
         <v>43817</v>
@@ -19512,7 +19525,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>118000</v>
+        <v>197865000</v>
       </c>
       <c r="E596" s="2">
         <v>44188</v>
@@ -19544,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="D597">
-        <v>874000</v>
+        <v>885470000</v>
       </c>
       <c r="E597" s="2">
         <v>43681</v>
@@ -19576,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>182000</v>
+        <v>255977000</v>
       </c>
       <c r="E598" s="2">
         <v>43746</v>
@@ -19608,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="D599">
-        <v>224000</v>
+        <v>294391000</v>
       </c>
       <c r="E599" s="2">
         <v>44143</v>
@@ -19640,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>743000</v>
+        <v>766393000</v>
       </c>
       <c r="E600" s="2">
         <v>43837</v>
@@ -19672,7 +19685,7 @@
         <v>0</v>
       </c>
       <c r="D601">
-        <v>465000</v>
+        <v>513260000</v>
       </c>
       <c r="E601" s="2">
         <v>42987</v>
@@ -19704,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>935000</v>
+        <v>941263000</v>
       </c>
       <c r="E602" s="2">
         <v>44168</v>
@@ -19736,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="D603">
-        <v>896000</v>
+        <v>905260000</v>
       </c>
       <c r="E603" s="2">
         <v>43330</v>
@@ -19768,7 +19781,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <v>565000</v>
+        <v>604746000</v>
       </c>
       <c r="E604" s="2">
         <v>43112</v>
@@ -19800,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="D605">
-        <v>172000</v>
+        <v>247501000</v>
       </c>
       <c r="E605" s="2">
         <v>43765</v>
@@ -19832,7 +19845,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>315000</v>
+        <v>377027000</v>
       </c>
       <c r="E606" s="2">
         <v>43286</v>
@@ -19864,7 +19877,7 @@
         <v>0</v>
       </c>
       <c r="D607">
-        <v>667000</v>
+        <v>697347000</v>
       </c>
       <c r="E607" s="2">
         <v>44217</v>
@@ -19896,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <v>304000</v>
+        <v>367503000</v>
       </c>
       <c r="E608" s="2">
         <v>44161</v>
@@ -19928,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>518000</v>
+        <v>561560000</v>
       </c>
       <c r="E609" s="2">
         <v>44492</v>
@@ -19960,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="D610">
-        <v>131000</v>
+        <v>210050000</v>
       </c>
       <c r="E610" s="2">
         <v>42905</v>
@@ -19992,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="D611">
-        <v>566000</v>
+        <v>605004000</v>
       </c>
       <c r="E611" s="2">
         <v>44050</v>
@@ -20024,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>942000</v>
+        <v>947618000</v>
       </c>
       <c r="E612" s="2">
         <v>43327</v>
@@ -20056,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>626000</v>
+        <v>660205000</v>
       </c>
       <c r="E613" s="2">
         <v>44359</v>
@@ -20088,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <v>294000</v>
+        <v>358360000</v>
       </c>
       <c r="E614" s="2">
         <v>42806</v>
@@ -20120,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>125000</v>
+        <v>204168000</v>
       </c>
       <c r="E615" s="2">
         <v>43404</v>
@@ -20152,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>602000</v>
+        <v>638284000</v>
       </c>
       <c r="E616" s="2">
         <v>43474</v>
@@ -20184,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>556000</v>
+        <v>596422000</v>
       </c>
       <c r="E617" s="2">
         <v>44030</v>
@@ -20216,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <v>758000</v>
+        <v>779739000</v>
       </c>
       <c r="E618" s="2">
         <v>43043</v>
@@ -20248,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>12000</v>
+        <v>101674000</v>
       </c>
       <c r="E619" s="2">
         <v>44113</v>
@@ -20280,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>160000</v>
+        <v>236813000</v>
       </c>
       <c r="E620" s="2">
         <v>42895</v>
@@ -20312,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>619000</v>
+        <v>653504000</v>
       </c>
       <c r="E621" s="2">
         <v>43726</v>
@@ -20344,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>579000</v>
+        <v>617058000</v>
       </c>
       <c r="E622" s="2">
         <v>44320</v>
@@ -20376,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>705000</v>
+        <v>732262000</v>
       </c>
       <c r="E623" s="2">
         <v>43827</v>
@@ -20408,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="D624">
-        <v>895000</v>
+        <v>904545000</v>
       </c>
       <c r="E624" s="2">
         <v>43932</v>
@@ -20440,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="D625">
-        <v>770000</v>
+        <v>791227000</v>
       </c>
       <c r="E625" s="2">
         <v>44082</v>
@@ -20472,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>615000</v>
+        <v>649584000</v>
       </c>
       <c r="E626" s="2">
         <v>43297</v>
@@ -20504,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>994000</v>
+        <v>994721000</v>
       </c>
       <c r="E627" s="2">
         <v>43495</v>
@@ -20536,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>343000</v>
+        <v>403082000</v>
       </c>
       <c r="E628" s="2">
         <v>43790</v>
@@ -20568,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>248000</v>
+        <v>316781000</v>
       </c>
       <c r="E629" s="2">
         <v>43406</v>
@@ -20600,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>276000</v>
+        <v>341724000</v>
       </c>
       <c r="E630" s="2">
         <v>43307</v>
@@ -20632,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>632000</v>
+        <v>665440000</v>
       </c>
       <c r="E631" s="2">
         <v>44529</v>
@@ -20664,7 +20677,7 @@
         <v>0</v>
       </c>
       <c r="D632">
-        <v>128000</v>
+        <v>207560000</v>
       </c>
       <c r="E632" s="2">
         <v>42739</v>
@@ -20696,7 +20709,7 @@
         <v>0</v>
       </c>
       <c r="D633">
-        <v>414000</v>
+        <v>467112000</v>
       </c>
       <c r="E633" s="2">
         <v>43242</v>
@@ -20728,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>351000</v>
+        <v>409890000</v>
       </c>
       <c r="E634" s="2">
         <v>43017</v>
@@ -20760,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>128000</v>
+        <v>207323000</v>
       </c>
       <c r="E635" s="2">
         <v>43499</v>
@@ -20792,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="D636">
-        <v>831000</v>
+        <v>846135000</v>
       </c>
       <c r="E636" s="2">
         <v>44339</v>
@@ -20824,7 +20837,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>836000</v>
+        <v>850494000</v>
       </c>
       <c r="E637" s="2">
         <v>43887</v>
@@ -20856,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="D638">
-        <v>259000</v>
+        <v>326256000</v>
       </c>
       <c r="E638" s="2">
         <v>44444</v>
@@ -20888,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="D639">
-        <v>98000</v>
+        <v>180226000</v>
       </c>
       <c r="E639" s="2">
         <v>42903</v>
@@ -20920,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="D640">
-        <v>631000</v>
+        <v>664505000</v>
       </c>
       <c r="E640" s="2">
         <v>44535</v>
@@ -20952,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="D641">
-        <v>212000</v>
+        <v>283599000</v>
       </c>
       <c r="E641" s="2">
         <v>44261</v>
@@ -20984,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="D642">
-        <v>588000</v>
+        <v>625158000</v>
       </c>
       <c r="E642" s="2">
         <v>44353</v>
@@ -21016,7 +21029,7 @@
         <v>0</v>
       </c>
       <c r="D643">
-        <v>397000</v>
+        <v>451619000</v>
       </c>
       <c r="E643" s="2">
         <v>43561</v>
@@ -21048,7 +21061,7 @@
         <v>0</v>
       </c>
       <c r="D644">
-        <v>862000</v>
+        <v>874620000</v>
       </c>
       <c r="E644" s="2">
         <v>42922</v>
@@ -21080,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>319000</v>
+        <v>380578000</v>
       </c>
       <c r="E645" s="2">
         <v>44058</v>
@@ -21112,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="D646">
-        <v>525000</v>
+        <v>567805000</v>
       </c>
       <c r="E646" s="2">
         <v>42918</v>
@@ -21144,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="D647">
-        <v>91000</v>
+        <v>173871000</v>
       </c>
       <c r="E647" s="2">
         <v>44545</v>
@@ -21176,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="D648">
-        <v>371000</v>
+        <v>428004000</v>
       </c>
       <c r="E648" s="2">
         <v>43005</v>
@@ -21208,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="D649">
-        <v>904000</v>
+        <v>912596000</v>
       </c>
       <c r="E649" s="2">
         <v>43611</v>
@@ -21240,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="D650">
-        <v>154000</v>
+        <v>230830000</v>
       </c>
       <c r="E650" s="2">
         <v>43565</v>
@@ -21272,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>755000</v>
+        <v>777577000</v>
       </c>
       <c r="E651" s="2">
         <v>42990</v>
@@ -21304,7 +21317,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>456000</v>
+        <v>505327000</v>
       </c>
       <c r="E652" s="2">
         <v>43008</v>
@@ -21336,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="D653">
-        <v>569000</v>
+        <v>607897000</v>
       </c>
       <c r="E653" s="2">
         <v>43538</v>
@@ -21368,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="D654">
-        <v>896000</v>
+        <v>905064000</v>
       </c>
       <c r="E654" s="2">
         <v>43337</v>
@@ -21400,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="D655">
-        <v>902000</v>
+        <v>911128000</v>
       </c>
       <c r="E655" s="2">
         <v>43719</v>
@@ -21432,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>441000</v>
+        <v>492259000</v>
       </c>
       <c r="E656" s="2">
         <v>43785</v>
@@ -21464,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="D657">
-        <v>994000</v>
+        <v>994417000</v>
       </c>
       <c r="E657" s="2">
         <v>44071</v>
@@ -21496,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="D658">
-        <v>292000</v>
+        <v>356000000</v>
       </c>
       <c r="E658" s="2">
         <v>43862</v>
@@ -21528,7 +21541,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>231000</v>
+        <v>300567000</v>
       </c>
       <c r="E659" s="2">
         <v>43582</v>
@@ -21560,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="D660">
-        <v>620000</v>
+        <v>654594000</v>
       </c>
       <c r="E660" s="2">
         <v>43757</v>
@@ -21592,7 +21605,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>595000</v>
+        <v>631371000</v>
       </c>
       <c r="E661" s="2">
         <v>43969</v>
@@ -21624,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="D662">
-        <v>525000</v>
+        <v>568617000</v>
       </c>
       <c r="E662" s="2">
         <v>43208</v>
@@ -21656,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="D663">
-        <v>314000</v>
+        <v>376358000</v>
       </c>
       <c r="E663" s="2">
         <v>44075</v>
@@ -21688,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="D664">
-        <v>439000</v>
+        <v>490032000</v>
       </c>
       <c r="E664" s="2">
         <v>43970</v>
@@ -21720,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="D665">
-        <v>551000</v>
+        <v>591802000</v>
       </c>
       <c r="E665" s="2">
         <v>43925</v>
@@ -21752,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>36000</v>
+        <v>123928000</v>
       </c>
       <c r="E666" s="2">
         <v>43223</v>
@@ -21784,7 +21797,7 @@
         <v>0</v>
       </c>
       <c r="D667">
-        <v>74000</v>
+        <v>158468000</v>
       </c>
       <c r="E667" s="2">
         <v>43295</v>
@@ -21816,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="D668">
-        <v>48000</v>
+        <v>134742000</v>
       </c>
       <c r="E668" s="2">
         <v>43955</v>
@@ -21848,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>841000</v>
+        <v>855058000</v>
       </c>
       <c r="E669" s="2">
         <v>42836</v>
@@ -21880,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="D670">
-        <v>624000</v>
+        <v>657914000</v>
       </c>
       <c r="E670" s="2">
         <v>43339</v>
@@ -21912,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="D671">
-        <v>320000</v>
+        <v>381958000</v>
       </c>
       <c r="E671" s="2">
         <v>43435</v>
@@ -21944,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="D672">
-        <v>579000</v>
+        <v>617026000</v>
       </c>
       <c r="E672" s="2">
         <v>42967</v>
@@ -21976,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="D673">
-        <v>879000</v>
+        <v>889546000</v>
       </c>
       <c r="E673" s="2">
         <v>43889</v>
@@ -22008,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="D674">
-        <v>109000</v>
+        <v>189646000</v>
       </c>
       <c r="E674" s="2">
         <v>44536</v>
@@ -22040,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="D675">
-        <v>204000</v>
+        <v>276673000</v>
       </c>
       <c r="E675" s="2">
         <v>44421</v>
@@ -22072,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="D676">
-        <v>337000</v>
+        <v>396842000</v>
       </c>
       <c r="E676" s="2">
         <v>42859</v>
@@ -22104,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="D677">
-        <v>464000</v>
+        <v>512364000</v>
       </c>
       <c r="E677" s="2">
         <v>43710</v>
@@ -22136,7 +22149,7 @@
         <v>0</v>
       </c>
       <c r="D678">
-        <v>364000</v>
+        <v>422240000</v>
       </c>
       <c r="E678" s="2">
         <v>43357</v>
@@ -22168,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="D679">
-        <v>850000</v>
+        <v>863602000</v>
       </c>
       <c r="E679" s="2">
         <v>44527</v>
@@ -22200,7 +22213,7 @@
         <v>0</v>
       </c>
       <c r="D680">
-        <v>550000</v>
+        <v>590963000</v>
       </c>
       <c r="E680" s="2">
         <v>43916</v>
@@ -22232,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="D681">
-        <v>86000</v>
+        <v>168786000</v>
       </c>
       <c r="E681" s="2">
         <v>44202</v>
@@ -22264,7 +22277,7 @@
         <v>0</v>
       </c>
       <c r="D682">
-        <v>270000</v>
+        <v>336712000</v>
       </c>
       <c r="E682" s="2">
         <v>42789</v>
@@ -22296,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>512000</v>
+        <v>556477000</v>
       </c>
       <c r="E683" s="2">
         <v>43765</v>
@@ -22328,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>761000</v>
+        <v>783071000</v>
       </c>
       <c r="E684" s="2">
         <v>43162</v>
@@ -22360,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="D685">
-        <v>632000</v>
+        <v>665857000</v>
       </c>
       <c r="E685" s="2">
         <v>43447</v>
@@ -22392,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="D686">
-        <v>996000</v>
+        <v>996540000</v>
       </c>
       <c r="E686" s="2">
         <v>43617</v>
@@ -22424,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="D687">
-        <v>329000</v>
+        <v>390248000</v>
       </c>
       <c r="E687" s="2">
         <v>43953</v>
@@ -22456,7 +22469,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>624000</v>
+        <v>657922000</v>
       </c>
       <c r="E688" s="2">
         <v>43449</v>
@@ -22488,7 +22501,7 @@
         <v>0</v>
       </c>
       <c r="D689">
-        <v>960000</v>
+        <v>963307000</v>
       </c>
       <c r="E689" s="2">
         <v>44247</v>
@@ -22520,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="D690">
-        <v>453000</v>
+        <v>502831000</v>
       </c>
       <c r="E690" s="2">
         <v>43395</v>
@@ -22552,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="D691">
-        <v>169000</v>
+        <v>244961000</v>
       </c>
       <c r="E691" s="2">
         <v>43187</v>
@@ -22584,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>237000</v>
+        <v>306800000</v>
       </c>
       <c r="E692" s="2">
         <v>43627</v>
@@ -22616,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>409000</v>
+        <v>462534000</v>
       </c>
       <c r="E693" s="2">
         <v>44348</v>
@@ -22648,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="D694">
-        <v>133000</v>
+        <v>212249000</v>
       </c>
       <c r="E694" s="2">
         <v>44510</v>
@@ -22680,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="D695">
-        <v>480000</v>
+        <v>527637000</v>
       </c>
       <c r="E695" s="2">
         <v>42949</v>
@@ -22712,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="D696">
-        <v>970000</v>
+        <v>973016000</v>
       </c>
       <c r="E696" s="2">
         <v>43034</v>
@@ -22744,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="D697">
-        <v>879000</v>
+        <v>890397000</v>
       </c>
       <c r="E697" s="2">
         <v>42874</v>
@@ -22776,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D698">
-        <v>600000</v>
+        <v>636604000</v>
       </c>
       <c r="E698" s="2">
         <v>43005</v>
@@ -22808,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="D699">
-        <v>938000</v>
+        <v>943283000</v>
       </c>
       <c r="E699" s="2">
         <v>44358</v>
@@ -22840,7 +22853,7 @@
         <v>0</v>
       </c>
       <c r="D700">
-        <v>632000</v>
+        <v>665716000</v>
       </c>
       <c r="E700" s="2">
         <v>44042</v>
@@ -22872,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>90000</v>
+        <v>172621000</v>
       </c>
       <c r="E701" s="2">
         <v>44171</v>
@@ -22904,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="D702">
-        <v>658000</v>
+        <v>689052000</v>
       </c>
       <c r="E702" s="2">
         <v>44130</v>
@@ -22936,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>592000</v>
+        <v>629536000</v>
       </c>
       <c r="E703" s="2">
         <v>43332</v>
@@ -22968,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="D704">
-        <v>649000</v>
+        <v>681012000</v>
       </c>
       <c r="E704" s="2">
         <v>43468</v>
@@ -23000,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="D705">
-        <v>267000</v>
+        <v>333475000</v>
       </c>
       <c r="E705" s="2">
         <v>43370</v>
@@ -23032,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="D706">
-        <v>735000</v>
+        <v>759467000</v>
       </c>
       <c r="E706" s="2">
         <v>43688</v>
@@ -23064,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>538000</v>
+        <v>580317000</v>
       </c>
       <c r="E707" s="2">
         <v>42884</v>
@@ -23096,7 +23109,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>967000</v>
+        <v>970319000</v>
       </c>
       <c r="E708" s="2">
         <v>43691</v>
@@ -23128,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="D709">
-        <v>137000</v>
+        <v>215600000</v>
       </c>
       <c r="E709" s="2">
         <v>43543</v>
@@ -23160,7 +23173,7 @@
         <v>0</v>
       </c>
       <c r="D710">
-        <v>530000</v>
+        <v>572938000</v>
       </c>
       <c r="E710" s="2">
         <v>43784</v>
@@ -23192,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>854000</v>
+        <v>867576000</v>
       </c>
       <c r="E711" s="2">
         <v>44418</v>
@@ -23224,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="D712">
-        <v>175000</v>
+        <v>250454000</v>
       </c>
       <c r="E712" s="2">
         <v>44449</v>
@@ -23256,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>774000</v>
+        <v>794746000</v>
       </c>
       <c r="E713" s="2">
         <v>43483</v>
@@ -23288,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="D714">
-        <v>935000</v>
+        <v>941107000</v>
       </c>
       <c r="E714" s="2">
         <v>42909</v>
@@ -23320,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="D715">
-        <v>741000</v>
+        <v>764153000</v>
       </c>
       <c r="E715" s="2">
         <v>44512</v>
@@ -23352,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>657000</v>
+        <v>687942000</v>
       </c>
       <c r="E716" s="2">
         <v>43034</v>
@@ -23384,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>224000</v>
+        <v>294712000</v>
       </c>
       <c r="E717" s="2">
         <v>44400</v>
@@ -23416,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>929000</v>
+        <v>935509000</v>
       </c>
       <c r="E718" s="2">
         <v>42951</v>
@@ -23448,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="D719">
-        <v>92000</v>
+        <v>174106000</v>
       </c>
       <c r="E719" s="2">
         <v>43554</v>
@@ -23480,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="D720">
-        <v>372000</v>
+        <v>429164000</v>
       </c>
       <c r="E720" s="2">
         <v>43269</v>
@@ -23512,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="D721">
-        <v>65000</v>
+        <v>150168000</v>
       </c>
       <c r="E721" s="2">
         <v>43217</v>
@@ -23544,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>473000</v>
+        <v>520481000</v>
       </c>
       <c r="E722" s="2">
         <v>43675</v>
@@ -23576,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="D723">
-        <v>739000</v>
+        <v>763165000</v>
       </c>
       <c r="E723" s="2">
         <v>43693</v>
@@ -23608,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>507000</v>
+        <v>551696000</v>
       </c>
       <c r="E724" s="2">
         <v>44164</v>
@@ -23640,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>242000</v>
+        <v>310581000</v>
       </c>
       <c r="E725" s="2">
         <v>43708</v>
@@ -23672,7 +23685,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>635000</v>
+        <v>667822000</v>
       </c>
       <c r="E726" s="2">
         <v>44493</v>
@@ -23704,7 +23717,7 @@
         <v>0</v>
       </c>
       <c r="D727">
-        <v>741000</v>
+        <v>764594000</v>
       </c>
       <c r="E727" s="2">
         <v>43963</v>
@@ -23736,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="D728">
-        <v>261000</v>
+        <v>328279000</v>
       </c>
       <c r="E728" s="2">
         <v>43733</v>
@@ -23768,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="D729">
-        <v>335000</v>
+        <v>395429000</v>
       </c>
       <c r="E729" s="2">
         <v>44268</v>
@@ -23800,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>214000</v>
+        <v>285712000</v>
       </c>
       <c r="E730" s="2">
         <v>44470</v>
@@ -23832,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>459000</v>
+        <v>508007000</v>
       </c>
       <c r="E731" s="2">
         <v>43097</v>
@@ -23864,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="D732">
-        <v>68000</v>
+        <v>152985000</v>
       </c>
       <c r="E732" s="2">
         <v>44432</v>
@@ -23896,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>423000</v>
+        <v>475081000</v>
       </c>
       <c r="E733" s="2">
         <v>44372</v>
@@ -23928,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="D734">
-        <v>94000</v>
+        <v>176049000</v>
       </c>
       <c r="E734" s="2">
         <v>43823</v>
@@ -23960,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="D735">
-        <v>268000</v>
+        <v>334505000</v>
       </c>
       <c r="E735" s="2">
         <v>43714</v>
@@ -23992,7 +24005,7 @@
         <v>0</v>
       </c>
       <c r="D736">
-        <v>991000</v>
+        <v>991970000</v>
       </c>
       <c r="E736" s="2">
         <v>43584</v>
@@ -24024,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="D737">
-        <v>79000</v>
+        <v>162405000</v>
       </c>
       <c r="E737" s="2">
         <v>44066</v>
@@ -24056,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="D738">
-        <v>302000</v>
+        <v>365584000</v>
       </c>
       <c r="E738" s="2">
         <v>43823</v>
@@ -24088,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="D739">
-        <v>387000</v>
+        <v>442393000</v>
       </c>
       <c r="E739" s="2">
         <v>43772</v>
@@ -24120,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="D740">
-        <v>832000</v>
+        <v>847528000</v>
       </c>
       <c r="E740" s="2">
         <v>44376</v>
@@ -24152,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="D741">
-        <v>122000</v>
+        <v>202170000</v>
       </c>
       <c r="E741" s="2">
         <v>44370</v>
@@ -24184,7 +24197,7 @@
         <v>0</v>
       </c>
       <c r="D742">
-        <v>929000</v>
+        <v>935028000</v>
       </c>
       <c r="E742" s="2">
         <v>44555</v>
@@ -24216,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="D743">
-        <v>725000</v>
+        <v>749588000</v>
       </c>
       <c r="E743" s="2">
         <v>43501</v>
@@ -24248,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="D744">
-        <v>900000</v>
+        <v>908745000</v>
       </c>
       <c r="E744" s="2">
         <v>44034</v>
@@ -24280,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="D745">
-        <v>821000</v>
+        <v>837673000</v>
       </c>
       <c r="E745" s="2">
         <v>42893</v>
@@ -24312,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>592000</v>
+        <v>628930000</v>
       </c>
       <c r="E746" s="2">
         <v>44549</v>
@@ -24344,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="D747">
-        <v>62000</v>
+        <v>147724000</v>
       </c>
       <c r="E747" s="2">
         <v>43659</v>
@@ -24376,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="D748">
-        <v>904000</v>
+        <v>913159000</v>
       </c>
       <c r="E748" s="2">
         <v>43387</v>
@@ -24408,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="D749">
-        <v>587000</v>
+        <v>624994000</v>
       </c>
       <c r="E749" s="2">
         <v>44006</v>
@@ -24440,7 +24453,7 @@
         <v>0</v>
       </c>
       <c r="D750">
-        <v>178000</v>
+        <v>252519000</v>
       </c>
       <c r="E750" s="2">
         <v>43516</v>
@@ -24472,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="D751">
-        <v>953000</v>
+        <v>957637000</v>
       </c>
       <c r="E751" s="2">
         <v>43765</v>
@@ -24504,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="D752">
-        <v>172000</v>
+        <v>247497000</v>
       </c>
       <c r="E752" s="2">
         <v>43687</v>
@@ -24536,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="D753">
-        <v>204000</v>
+        <v>275969000</v>
       </c>
       <c r="E753" s="2">
         <v>44087</v>
@@ -24568,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>609000</v>
+        <v>644847000</v>
       </c>
       <c r="E754" s="2">
         <v>43553</v>
@@ -24600,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="D755">
-        <v>740000</v>
+        <v>763994000</v>
       </c>
       <c r="E755" s="2">
         <v>42830</v>
@@ -24632,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>141000</v>
+        <v>218827000</v>
       </c>
       <c r="E756" s="2">
         <v>44417</v>
@@ -24664,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="D757">
-        <v>400000</v>
+        <v>454664000</v>
       </c>
       <c r="E757" s="2">
         <v>44326</v>
@@ -24696,7 +24709,7 @@
         <v>0</v>
       </c>
       <c r="D758">
-        <v>454000</v>
+        <v>503822000</v>
       </c>
       <c r="E758" s="2">
         <v>43451</v>
@@ -24728,7 +24741,7 @@
         <v>0</v>
       </c>
       <c r="D759">
-        <v>463000</v>
+        <v>511930000</v>
       </c>
       <c r="E759" s="2">
         <v>43945</v>
@@ -24760,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="D760">
-        <v>484000</v>
+        <v>531135000</v>
       </c>
       <c r="E760" s="2">
         <v>43970</v>
@@ -24792,7 +24805,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>457000</v>
+        <v>506700000</v>
       </c>
       <c r="E761" s="2">
         <v>43923</v>
@@ -24824,7 +24837,7 @@
         <v>0</v>
       </c>
       <c r="D762">
-        <v>27000</v>
+        <v>115749000</v>
       </c>
       <c r="E762" s="2">
         <v>44088</v>
@@ -24856,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>935000</v>
+        <v>941287000</v>
       </c>
       <c r="E763" s="2">
         <v>42964</v>
@@ -24888,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>582000</v>
+        <v>619710000</v>
       </c>
       <c r="E764" s="2">
         <v>43239</v>
@@ -24920,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>709000</v>
+        <v>735469000</v>
       </c>
       <c r="E765" s="2">
         <v>43866</v>
@@ -24952,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="D766">
-        <v>666000</v>
+        <v>696521000</v>
       </c>
       <c r="E766" s="2">
         <v>44264</v>
@@ -24984,7 +24997,7 @@
         <v>0</v>
       </c>
       <c r="D767">
-        <v>957000</v>
+        <v>961107000</v>
       </c>
       <c r="E767" s="2">
         <v>44020</v>
@@ -25016,7 +25029,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>558000</v>
+        <v>598323000</v>
       </c>
       <c r="E768" s="2">
         <v>43063</v>
@@ -25048,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>359000</v>
+        <v>417375000</v>
       </c>
       <c r="E769" s="2">
         <v>43174</v>
@@ -25080,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="D770">
-        <v>755000</v>
+        <v>777554000</v>
       </c>
       <c r="E770" s="2">
         <v>43941</v>
@@ -25112,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>190000</v>
+        <v>263793000</v>
       </c>
       <c r="E771" s="2">
         <v>44259</v>
@@ -25144,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>598000</v>
+        <v>634883000</v>
       </c>
       <c r="E772" s="2">
         <v>43757</v>
@@ -25176,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="D773">
-        <v>741000</v>
+        <v>764854000</v>
       </c>
       <c r="E773" s="2">
         <v>43536</v>
@@ -25208,7 +25221,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>574000</v>
+        <v>612397000</v>
       </c>
       <c r="E774" s="2">
         <v>43038</v>
@@ -25240,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>843000</v>
+        <v>856997000</v>
       </c>
       <c r="E775" s="2">
         <v>42920</v>
@@ -25272,7 +25285,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>152000</v>
+        <v>229058000</v>
       </c>
       <c r="E776" s="2">
         <v>43299</v>
@@ -25304,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D777">
-        <v>816000</v>
+        <v>833049000</v>
       </c>
       <c r="E777" s="2">
         <v>44036</v>
@@ -25336,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="D778">
-        <v>943000</v>
+        <v>948332000</v>
       </c>
       <c r="E778" s="2">
         <v>43044</v>
@@ -25368,7 +25381,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>851000</v>
+        <v>864752000</v>
       </c>
       <c r="E779" s="2">
         <v>43521</v>
@@ -25400,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="D780">
-        <v>387000</v>
+        <v>442536000</v>
       </c>
       <c r="E780" s="2">
         <v>44495</v>
@@ -25432,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="D781">
-        <v>162000</v>
+        <v>237732000</v>
       </c>
       <c r="E781" s="2">
         <v>44229</v>
@@ -25464,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>600000</v>
+        <v>636770000</v>
       </c>
       <c r="E782" s="2">
         <v>44370</v>
@@ -25496,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>267000</v>
+        <v>333893000</v>
       </c>
       <c r="E783" s="2">
         <v>43810</v>
@@ -25528,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>704000</v>
+        <v>731186000</v>
       </c>
       <c r="E784" s="2">
         <v>44148</v>
@@ -25560,7 +25573,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>322000</v>
+        <v>384072000</v>
       </c>
       <c r="E785" s="2">
         <v>43657</v>
@@ -25592,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="D786">
-        <v>722000</v>
+        <v>747368000</v>
       </c>
       <c r="E786" s="2">
         <v>43460</v>
@@ -25624,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>396000</v>
+        <v>451324000</v>
       </c>
       <c r="E787" s="2">
         <v>44137</v>
@@ -25656,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>481000</v>
+        <v>528031000</v>
       </c>
       <c r="E788" s="2">
         <v>43752</v>
@@ -25688,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="D789">
-        <v>912000</v>
+        <v>919675000</v>
       </c>
       <c r="E789" s="2">
         <v>43331</v>
@@ -25720,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="D790">
-        <v>404000</v>
+        <v>458287000</v>
       </c>
       <c r="E790" s="2">
         <v>43886</v>
@@ -25752,7 +25765,7 @@
         <v>0</v>
       </c>
       <c r="D791">
-        <v>62000</v>
+        <v>147413000</v>
       </c>
       <c r="E791" s="2">
         <v>44494</v>
@@ -25784,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>962000</v>
+        <v>965740000</v>
       </c>
       <c r="E792" s="2">
         <v>42872</v>
@@ -25816,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="D793">
-        <v>173000</v>
+        <v>248565000</v>
       </c>
       <c r="E793" s="2">
         <v>43432</v>
@@ -25848,7 +25861,7 @@
         <v>0</v>
       </c>
       <c r="D794">
-        <v>299000</v>
+        <v>362602000</v>
       </c>
       <c r="E794" s="2">
         <v>43838</v>
@@ -25880,7 +25893,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>767000</v>
+        <v>788577000</v>
       </c>
       <c r="E795" s="2">
         <v>44401</v>
@@ -25912,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="D796">
-        <v>11000</v>
+        <v>100461000</v>
       </c>
       <c r="E796" s="2">
         <v>43466</v>
@@ -25944,7 +25957,7 @@
         <v>0</v>
       </c>
       <c r="D797">
-        <v>760000</v>
+        <v>782199000</v>
       </c>
       <c r="E797" s="2">
         <v>43089</v>
@@ -25976,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="D798">
-        <v>497000</v>
+        <v>542823000</v>
       </c>
       <c r="E798" s="2">
         <v>43052</v>
@@ -26008,7 +26021,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>673000</v>
+        <v>702497000</v>
       </c>
       <c r="E799" s="2">
         <v>43590</v>
@@ -26040,7 +26053,7 @@
         <v>0</v>
       </c>
       <c r="D800">
-        <v>343000</v>
+        <v>402634000</v>
       </c>
       <c r="E800" s="2">
         <v>43363</v>
@@ -26072,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>310000</v>
+        <v>372891000</v>
       </c>
       <c r="E801" s="2">
         <v>42828</v>
@@ -26104,7 +26117,7 @@
         <v>0</v>
       </c>
       <c r="D802">
-        <v>956000</v>
+        <v>959723000</v>
       </c>
       <c r="E802" s="2">
         <v>43193</v>
@@ -26136,7 +26149,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>895000</v>
+        <v>904964000</v>
       </c>
       <c r="E803" s="2">
         <v>44490</v>
@@ -26168,7 +26181,7 @@
         <v>0</v>
       </c>
       <c r="D804">
-        <v>643000</v>
+        <v>675029000</v>
       </c>
       <c r="E804" s="2">
         <v>43491</v>
@@ -26200,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="D805">
-        <v>355000</v>
+        <v>413842000</v>
       </c>
       <c r="E805" s="2">
         <v>43502</v>
@@ -26232,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="D806">
-        <v>109000</v>
+        <v>189973000</v>
       </c>
       <c r="E806" s="2">
         <v>43147</v>
@@ -26264,7 +26277,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>76000</v>
+        <v>159647000</v>
       </c>
       <c r="E807" s="2">
         <v>43443</v>
@@ -26296,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="D808">
-        <v>281000</v>
+        <v>346340000</v>
       </c>
       <c r="E808" s="2">
         <v>43755</v>
@@ -26328,7 +26341,7 @@
         <v>0</v>
       </c>
       <c r="D809">
-        <v>738000</v>
+        <v>761406000</v>
       </c>
       <c r="E809" s="2">
         <v>43074</v>
@@ -26360,7 +26373,7 @@
         <v>0</v>
       </c>
       <c r="D810">
-        <v>266000</v>
+        <v>332537000</v>
       </c>
       <c r="E810" s="2">
         <v>43811</v>
@@ -26392,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="D811">
-        <v>266000</v>
+        <v>332345000</v>
       </c>
       <c r="E811" s="2">
         <v>44273</v>
@@ -26424,7 +26437,7 @@
         <v>0</v>
       </c>
       <c r="D812">
-        <v>532000</v>
+        <v>574805000</v>
       </c>
       <c r="E812" s="2">
         <v>43546</v>
@@ -26456,7 +26469,7 @@
         <v>0</v>
       </c>
       <c r="D813">
-        <v>772000</v>
+        <v>792280000</v>
       </c>
       <c r="E813" s="2">
         <v>43100</v>
@@ -26488,7 +26501,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>982000</v>
+        <v>983380000</v>
       </c>
       <c r="E814" s="2">
         <v>43365</v>
@@ -26520,7 +26533,7 @@
         <v>0</v>
       </c>
       <c r="D815">
-        <v>961000</v>
+        <v>964285000</v>
       </c>
       <c r="E815" s="2">
         <v>44488</v>
@@ -26552,7 +26565,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>574000</v>
+        <v>612939000</v>
       </c>
       <c r="E816" s="2">
         <v>43829</v>
@@ -26584,7 +26597,7 @@
         <v>0</v>
       </c>
       <c r="D817">
-        <v>649000</v>
+        <v>681310000</v>
       </c>
       <c r="E817" s="2">
         <v>44256</v>
@@ -26616,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="D818">
-        <v>340000</v>
+        <v>400229000</v>
       </c>
       <c r="E818" s="2">
         <v>44342</v>
@@ -26648,7 +26661,7 @@
         <v>0</v>
       </c>
       <c r="D819">
-        <v>158000</v>
+        <v>234135000</v>
       </c>
       <c r="E819" s="2">
         <v>43758</v>
@@ -26680,7 +26693,7 @@
         <v>0</v>
       </c>
       <c r="D820">
-        <v>633000</v>
+        <v>666215000</v>
       </c>
       <c r="E820" s="2">
         <v>43960</v>
@@ -26712,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="D821">
-        <v>162000</v>
+        <v>238257000</v>
       </c>
       <c r="E821" s="2">
         <v>43476</v>
@@ -26744,7 +26757,7 @@
         <v>0</v>
       </c>
       <c r="D822">
-        <v>891000</v>
+        <v>901088000</v>
       </c>
       <c r="E822" s="2">
         <v>43372</v>
@@ -26776,7 +26789,7 @@
         <v>0</v>
       </c>
       <c r="D823">
-        <v>156000</v>
+        <v>232814000</v>
       </c>
       <c r="E823" s="2">
         <v>43607</v>
@@ -26808,7 +26821,7 @@
         <v>0</v>
       </c>
       <c r="D824">
-        <v>671000</v>
+        <v>701165000</v>
       </c>
       <c r="E824" s="2">
         <v>43450</v>
@@ -26840,7 +26853,7 @@
         <v>0</v>
       </c>
       <c r="D825">
-        <v>63000</v>
+        <v>148572000</v>
       </c>
       <c r="E825" s="2">
         <v>43757</v>
@@ -26872,7 +26885,7 @@
         <v>0</v>
       </c>
       <c r="D826">
-        <v>690000</v>
+        <v>718513000</v>
       </c>
       <c r="E826" s="2">
         <v>44538</v>
@@ -26904,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="D827">
-        <v>206000</v>
+        <v>277751000</v>
       </c>
       <c r="E827" s="2">
         <v>44196</v>
@@ -26936,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>659000</v>
+        <v>689662000</v>
       </c>
       <c r="E828" s="2">
         <v>44374</v>
@@ -26968,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="D829">
-        <v>841000</v>
+        <v>855785000</v>
       </c>
       <c r="E829" s="2">
         <v>43213</v>
@@ -27000,7 +27013,7 @@
         <v>0</v>
       </c>
       <c r="D830">
-        <v>36000</v>
+        <v>123222000</v>
       </c>
       <c r="E830" s="2">
         <v>43326</v>
@@ -27032,7 +27045,7 @@
         <v>0</v>
       </c>
       <c r="D831">
-        <v>353000</v>
+        <v>411999000</v>
       </c>
       <c r="E831" s="2">
         <v>44496</v>
@@ -27064,7 +27077,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>139000</v>
+        <v>217538000</v>
       </c>
       <c r="E832" s="2">
         <v>43439</v>
@@ -27096,7 +27109,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>277000</v>
+        <v>342732000</v>
       </c>
       <c r="E833" s="2">
         <v>43757</v>
@@ -27128,7 +27141,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>356000</v>
+        <v>414675000</v>
       </c>
       <c r="E834" s="2">
         <v>42807</v>
@@ -27160,7 +27173,7 @@
         <v>0</v>
       </c>
       <c r="D835">
-        <v>971000</v>
+        <v>973932000</v>
       </c>
       <c r="E835" s="2">
         <v>44367</v>
@@ -27192,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="D836">
-        <v>371000</v>
+        <v>427972000</v>
       </c>
       <c r="E836" s="2">
         <v>44162</v>
@@ -27224,7 +27237,7 @@
         <v>0</v>
       </c>
       <c r="D837">
-        <v>694000</v>
+        <v>721441000</v>
       </c>
       <c r="E837" s="2">
         <v>44173</v>
@@ -27256,7 +27269,7 @@
         <v>0</v>
       </c>
       <c r="D838">
-        <v>278000</v>
+        <v>343650000</v>
       </c>
       <c r="E838" s="2">
         <v>42962</v>
@@ -27288,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="D839">
-        <v>255000</v>
+        <v>322673000</v>
       </c>
       <c r="E839" s="2">
         <v>42998</v>
@@ -27320,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="D840">
-        <v>399000</v>
+        <v>453464000</v>
       </c>
       <c r="E840" s="2">
         <v>43490</v>
@@ -27352,7 +27365,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>619000</v>
+        <v>653549000</v>
       </c>
       <c r="E841" s="2">
         <v>44341</v>
@@ -27384,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="D842">
-        <v>594000</v>
+        <v>630618000</v>
       </c>
       <c r="E842" s="2">
         <v>42866</v>
@@ -27416,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="D843">
-        <v>406000</v>
+        <v>459989000</v>
       </c>
       <c r="E843" s="2">
         <v>42858</v>
@@ -27448,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>190000</v>
+        <v>263980000</v>
       </c>
       <c r="E844" s="2">
         <v>44108</v>
@@ -27480,7 +27493,7 @@
         <v>0</v>
       </c>
       <c r="D845">
-        <v>834000</v>
+        <v>849532000</v>
       </c>
       <c r="E845" s="2">
         <v>44168</v>
@@ -27512,7 +27525,7 @@
         <v>0</v>
       </c>
       <c r="D846">
-        <v>563000</v>
+        <v>602435000</v>
       </c>
       <c r="E846" s="2">
         <v>43670</v>
@@ -27544,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="D847">
-        <v>598000</v>
+        <v>634315000</v>
       </c>
       <c r="E847" s="2">
         <v>43619</v>
@@ -27576,7 +27589,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>732000</v>
+        <v>755914000</v>
       </c>
       <c r="E848" s="2">
         <v>43046</v>
@@ -27608,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>219000</v>
+        <v>290396000</v>
       </c>
       <c r="E849" s="2">
         <v>43073</v>
@@ -27640,7 +27653,7 @@
         <v>0</v>
       </c>
       <c r="D850">
-        <v>952000</v>
+        <v>955937000</v>
       </c>
       <c r="E850" s="2">
         <v>43005</v>
@@ -27672,7 +27685,7 @@
         <v>0</v>
       </c>
       <c r="D851">
-        <v>793000</v>
+        <v>812202000</v>
       </c>
       <c r="E851" s="2">
         <v>43204</v>
@@ -27704,7 +27717,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>798000</v>
+        <v>815970000</v>
       </c>
       <c r="E852" s="2">
         <v>44308</v>
@@ -27736,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="D853">
-        <v>750000</v>
+        <v>773120000</v>
       </c>
       <c r="E853" s="2">
         <v>43806</v>
@@ -27768,7 +27781,7 @@
         <v>0</v>
       </c>
       <c r="D854">
-        <v>213000</v>
+        <v>284457000</v>
       </c>
       <c r="E854" s="2">
         <v>43855</v>
@@ -27800,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="D855">
-        <v>655000</v>
+        <v>686683000</v>
       </c>
       <c r="E855" s="2">
         <v>44538</v>
@@ -27832,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>251000</v>
+        <v>319149000</v>
       </c>
       <c r="E856" s="2">
         <v>43329</v>
@@ -27864,7 +27877,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>534000</v>
+        <v>576257000</v>
       </c>
       <c r="E857" s="2">
         <v>43637</v>
@@ -27896,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="D858">
-        <v>892000</v>
+        <v>902029000</v>
       </c>
       <c r="E858" s="2">
         <v>44227</v>
@@ -27928,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="D859">
-        <v>538000</v>
+        <v>580435000</v>
       </c>
       <c r="E859" s="2">
         <v>43887</v>
@@ -27960,7 +27973,7 @@
         <v>0</v>
       </c>
       <c r="D860">
-        <v>76000</v>
+        <v>159596000</v>
       </c>
       <c r="E860" s="2">
         <v>43254</v>
@@ -27992,7 +28005,7 @@
         <v>0</v>
       </c>
       <c r="D861">
-        <v>747000</v>
+        <v>770147000</v>
       </c>
       <c r="E861" s="2">
         <v>43083</v>
@@ -28024,7 +28037,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>975000</v>
+        <v>977263000</v>
       </c>
       <c r="E862" s="2">
         <v>43396</v>
@@ -28056,7 +28069,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>783000</v>
+        <v>802914000</v>
       </c>
       <c r="E863" s="2">
         <v>43320</v>
@@ -28088,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="D864">
-        <v>668000</v>
+        <v>698126000</v>
       </c>
       <c r="E864" s="2">
         <v>42957</v>
@@ -28120,7 +28133,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>85000</v>
+        <v>168199000</v>
       </c>
       <c r="E865" s="2">
         <v>43320</v>
@@ -28152,7 +28165,7 @@
         <v>0</v>
       </c>
       <c r="D866">
-        <v>292000</v>
+        <v>356731000</v>
       </c>
       <c r="E866" s="2">
         <v>43185</v>
@@ -28184,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="D867">
-        <v>59000</v>
+        <v>144796000</v>
       </c>
       <c r="E867" s="2">
         <v>44253</v>
@@ -28216,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="D868">
-        <v>414000</v>
+        <v>467717000</v>
       </c>
       <c r="E868" s="2">
         <v>43034</v>
@@ -28248,7 +28261,7 @@
         <v>0</v>
       </c>
       <c r="D869">
-        <v>640000</v>
+        <v>672897000</v>
       </c>
       <c r="E869" s="2">
         <v>43668</v>
@@ -28280,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>822000</v>
+        <v>838505000</v>
       </c>
       <c r="E870" s="2">
         <v>44132</v>
@@ -28312,7 +28325,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>386000</v>
+        <v>441859000</v>
       </c>
       <c r="E871" s="2">
         <v>43284</v>
@@ -28344,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="D872">
-        <v>379000</v>
+        <v>435108000</v>
       </c>
       <c r="E872" s="2">
         <v>43077</v>
@@ -28376,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="D873">
-        <v>204000</v>
+        <v>276652000</v>
       </c>
       <c r="E873" s="2">
         <v>43864</v>
@@ -28408,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>61000</v>
+        <v>145963000</v>
       </c>
       <c r="E874" s="2">
         <v>43478</v>
@@ -28440,7 +28453,7 @@
         <v>0</v>
       </c>
       <c r="D875">
-        <v>694000</v>
+        <v>721480000</v>
       </c>
       <c r="E875" s="2">
         <v>43631</v>
@@ -28472,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="D876">
-        <v>443000</v>
+        <v>493251000</v>
       </c>
       <c r="E876" s="2">
         <v>42903</v>
@@ -28504,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="D877">
-        <v>581000</v>
+        <v>619058000</v>
       </c>
       <c r="E877" s="2">
         <v>44550</v>
@@ -28536,7 +28549,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>704000</v>
+        <v>730767000</v>
       </c>
       <c r="E878" s="2">
         <v>43132</v>
@@ -28568,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="D879">
-        <v>406000</v>
+        <v>460063000</v>
       </c>
       <c r="E879" s="2">
         <v>44138</v>
@@ -28600,7 +28613,7 @@
         <v>0</v>
       </c>
       <c r="D880">
-        <v>851000</v>
+        <v>864865000</v>
       </c>
       <c r="E880" s="2">
         <v>44537</v>
@@ -28632,7 +28645,7 @@
         <v>0</v>
       </c>
       <c r="D881">
-        <v>486000</v>
+        <v>532611000</v>
       </c>
       <c r="E881" s="2">
         <v>43305</v>
@@ -28664,7 +28677,7 @@
         <v>0</v>
       </c>
       <c r="D882">
-        <v>544000</v>
+        <v>585278000</v>
       </c>
       <c r="E882" s="2">
         <v>44556</v>
@@ -28696,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="D883">
-        <v>818000</v>
+        <v>834135000</v>
       </c>
       <c r="E883" s="2">
         <v>43363</v>
@@ -28728,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="D884">
-        <v>306000</v>
+        <v>369493000</v>
       </c>
       <c r="E884" s="2">
         <v>43608</v>
@@ -28760,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>734000</v>
+        <v>758635000</v>
       </c>
       <c r="E885" s="2">
         <v>43608</v>
@@ -28792,7 +28805,7 @@
         <v>0</v>
       </c>
       <c r="D886">
-        <v>279000</v>
+        <v>344217000</v>
       </c>
       <c r="E886" s="2">
         <v>43360</v>
@@ -28824,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="D887">
-        <v>764000</v>
+        <v>785173000</v>
       </c>
       <c r="E887" s="2">
         <v>43233</v>
@@ -28856,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>617000</v>
+        <v>651645000</v>
       </c>
       <c r="E888" s="2">
         <v>43049</v>
@@ -28888,7 +28901,7 @@
         <v>0</v>
       </c>
       <c r="D889">
-        <v>957000</v>
+        <v>960646000</v>
       </c>
       <c r="E889" s="2">
         <v>44218</v>
@@ -28920,7 +28933,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>479000</v>
+        <v>526451000</v>
       </c>
       <c r="E890" s="2">
         <v>43230</v>
@@ -28952,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="D891">
-        <v>730000</v>
+        <v>754553000</v>
       </c>
       <c r="E891" s="2">
         <v>43462</v>
@@ -28984,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>74000</v>
+        <v>157906000</v>
       </c>
       <c r="E892" s="2">
         <v>43447</v>
@@ -29016,7 +29029,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>719000</v>
+        <v>744164000</v>
       </c>
       <c r="E893" s="2">
         <v>43928</v>
@@ -29048,7 +29061,7 @@
         <v>0</v>
       </c>
       <c r="D894">
-        <v>546000</v>
+        <v>587096000</v>
       </c>
       <c r="E894" s="2">
         <v>43022</v>
@@ -29080,7 +29093,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>239000</v>
+        <v>307750000</v>
       </c>
       <c r="E895" s="2">
         <v>44262</v>
@@ -29112,7 +29125,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>804000</v>
+        <v>821378000</v>
       </c>
       <c r="E896" s="2">
         <v>42997</v>
@@ -29144,7 +29157,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>205000</v>
+        <v>277378000</v>
       </c>
       <c r="E897" s="2">
         <v>43920</v>
@@ -29176,7 +29189,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>509000</v>
+        <v>553904000</v>
       </c>
       <c r="E898" s="2">
         <v>44335</v>
@@ -29208,7 +29221,7 @@
         <v>0</v>
       </c>
       <c r="D899">
-        <v>648000</v>
+        <v>680133000</v>
       </c>
       <c r="E899" s="2">
         <v>43256</v>
@@ -29240,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>98000</v>
+        <v>179905000</v>
       </c>
       <c r="E900" s="2">
         <v>43248</v>
@@ -29272,7 +29285,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>571000</v>
+        <v>610205000</v>
       </c>
       <c r="E901" s="2">
         <v>44205</v>
@@ -29304,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>123000</v>
+        <v>202820000</v>
       </c>
       <c r="E902" s="2">
         <v>43964</v>
@@ -29336,7 +29349,7 @@
         <v>0</v>
       </c>
       <c r="D903">
-        <v>913000</v>
+        <v>920776000</v>
       </c>
       <c r="E903" s="2">
         <v>43026</v>
@@ -29368,7 +29381,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>232000</v>
+        <v>301776000</v>
       </c>
       <c r="E904" s="2">
         <v>43071</v>
@@ -29400,7 +29413,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>578000</v>
+        <v>616667000</v>
       </c>
       <c r="E905" s="2">
         <v>44430</v>
@@ -29432,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>939000</v>
+        <v>944491000</v>
       </c>
       <c r="E906" s="2">
         <v>44307</v>
@@ -29464,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>451000</v>
+        <v>501034000</v>
       </c>
       <c r="E907" s="2">
         <v>43714</v>
@@ -29496,7 +29509,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>21000</v>
+        <v>110007000</v>
       </c>
       <c r="E908" s="2">
         <v>44173</v>
@@ -29528,7 +29541,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>388000</v>
+        <v>443436000</v>
       </c>
       <c r="E909" s="2">
         <v>43463</v>
@@ -29560,7 +29573,7 @@
         <v>0</v>
       </c>
       <c r="D910">
-        <v>598000</v>
+        <v>634263000</v>
       </c>
       <c r="E910" s="2">
         <v>42755</v>
@@ -29592,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="D911">
-        <v>546000</v>
+        <v>587112000</v>
       </c>
       <c r="E911" s="2">
         <v>43257</v>
@@ -29624,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>963000</v>
+        <v>966478000</v>
       </c>
       <c r="E912" s="2">
         <v>43149</v>
@@ -29656,7 +29669,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>103000</v>
+        <v>184992000</v>
       </c>
       <c r="E913" s="2">
         <v>44191</v>
@@ -29688,7 +29701,7 @@
         <v>0</v>
       </c>
       <c r="D914">
-        <v>124000</v>
+        <v>203200000</v>
       </c>
       <c r="E914" s="2">
         <v>43019</v>
@@ -29720,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>387000</v>
+        <v>442352000</v>
       </c>
       <c r="E915" s="2">
         <v>43470</v>
@@ -29752,7 +29765,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>442000</v>
+        <v>492548000</v>
       </c>
       <c r="E916" s="2">
         <v>44522</v>
@@ -29784,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="D917">
-        <v>818000</v>
+        <v>834685000</v>
       </c>
       <c r="E917" s="2">
         <v>43243</v>
@@ -29816,7 +29829,7 @@
         <v>0</v>
       </c>
       <c r="D918">
-        <v>182000</v>
+        <v>256775000</v>
       </c>
       <c r="E918" s="2">
         <v>43903</v>
@@ -29848,7 +29861,7 @@
         <v>0</v>
       </c>
       <c r="D919">
-        <v>33000</v>
+        <v>120611000</v>
       </c>
       <c r="E919" s="2">
         <v>43986</v>
@@ -29880,7 +29893,7 @@
         <v>0</v>
       </c>
       <c r="D920">
-        <v>704000</v>
+        <v>730652000</v>
       </c>
       <c r="E920" s="2">
         <v>44409</v>
@@ -29912,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="D921">
-        <v>452000</v>
+        <v>501742000</v>
       </c>
       <c r="E921" s="2">
         <v>44493</v>
@@ -29944,7 +29957,7 @@
         <v>0</v>
       </c>
       <c r="D922">
-        <v>50000</v>
+        <v>136783000</v>
       </c>
       <c r="E922" s="2">
         <v>44441</v>
@@ -29976,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D923">
-        <v>931000</v>
+        <v>936954000</v>
       </c>
       <c r="E923" s="2">
         <v>43796</v>
@@ -30008,7 +30021,7 @@
         <v>0</v>
       </c>
       <c r="D924">
-        <v>55000</v>
+        <v>140856000</v>
       </c>
       <c r="E924" s="2">
         <v>44503</v>
@@ -30040,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="D925">
-        <v>483000</v>
+        <v>529606000</v>
       </c>
       <c r="E925" s="2">
         <v>42859</v>
@@ -30072,7 +30085,7 @@
         <v>0</v>
       </c>
       <c r="D926">
-        <v>367000</v>
+        <v>424868000</v>
       </c>
       <c r="E926" s="2">
         <v>42789</v>
@@ -30104,7 +30117,7 @@
         <v>0</v>
       </c>
       <c r="D927">
-        <v>955000</v>
+        <v>958987000</v>
       </c>
       <c r="E927" s="2">
         <v>44066</v>
@@ -30136,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="D928">
-        <v>428000</v>
+        <v>479781000</v>
       </c>
       <c r="E928" s="2">
         <v>43854</v>
@@ -30168,7 +30181,7 @@
         <v>0</v>
       </c>
       <c r="D929">
-        <v>218000</v>
+        <v>289544000</v>
       </c>
       <c r="E929" s="2">
         <v>43453</v>
@@ -30200,7 +30213,7 @@
         <v>0</v>
       </c>
       <c r="D930">
-        <v>862000</v>
+        <v>874430000</v>
       </c>
       <c r="E930" s="2">
         <v>43974</v>
@@ -30232,7 +30245,7 @@
         <v>0</v>
       </c>
       <c r="D931">
-        <v>527000</v>
+        <v>569716000</v>
       </c>
       <c r="E931" s="2">
         <v>44258</v>
@@ -30264,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="D932">
-        <v>168000</v>
+        <v>243506000</v>
       </c>
       <c r="E932" s="2">
         <v>44548</v>
@@ -30296,7 +30309,7 @@
         <v>0</v>
       </c>
       <c r="D933">
-        <v>145000</v>
+        <v>222450000</v>
       </c>
       <c r="E933" s="2">
         <v>43971</v>
@@ -30328,7 +30341,7 @@
         <v>0</v>
       </c>
       <c r="D934">
-        <v>604000</v>
+        <v>640348000</v>
       </c>
       <c r="E934" s="2">
         <v>44038</v>
@@ -30360,7 +30373,7 @@
         <v>0</v>
       </c>
       <c r="D935">
-        <v>70000</v>
+        <v>154627000</v>
       </c>
       <c r="E935" s="2">
         <v>43928</v>
@@ -30392,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="D936">
-        <v>353000</v>
+        <v>411592000</v>
       </c>
       <c r="E936" s="2">
         <v>43564</v>
@@ -30424,7 +30437,7 @@
         <v>0</v>
       </c>
       <c r="D937">
-        <v>685000</v>
+        <v>713696000</v>
       </c>
       <c r="E937" s="2">
         <v>43575</v>
@@ -30456,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="D938">
-        <v>719000</v>
+        <v>744175000</v>
       </c>
       <c r="E938" s="2">
         <v>43135</v>
@@ -30488,7 +30501,7 @@
         <v>0</v>
       </c>
       <c r="D939">
-        <v>661000</v>
+        <v>692234000</v>
       </c>
       <c r="E939" s="2">
         <v>43893</v>
@@ -30520,7 +30533,7 @@
         <v>0</v>
       </c>
       <c r="D940">
-        <v>149000</v>
+        <v>226347000</v>
       </c>
       <c r="E940" s="2">
         <v>43382</v>
@@ -30552,7 +30565,7 @@
         <v>0</v>
       </c>
       <c r="D941">
-        <v>29000</v>
+        <v>117298000</v>
       </c>
       <c r="E941" s="2">
         <v>42767</v>
@@ -30584,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="D942">
-        <v>652000</v>
+        <v>683436000</v>
       </c>
       <c r="E942" s="2">
         <v>44435</v>
@@ -30616,7 +30629,7 @@
         <v>0</v>
       </c>
       <c r="D943">
-        <v>386000</v>
+        <v>441560000</v>
       </c>
       <c r="E943" s="2">
         <v>43800</v>
@@ -30648,7 +30661,7 @@
         <v>0</v>
       </c>
       <c r="D944">
-        <v>556000</v>
+        <v>596376000</v>
       </c>
       <c r="E944" s="2">
         <v>43884</v>
@@ -30680,7 +30693,7 @@
         <v>0</v>
       </c>
       <c r="D945">
-        <v>136000</v>
+        <v>214749000</v>
       </c>
       <c r="E945" s="2">
         <v>44102</v>
@@ -30712,7 +30725,7 @@
         <v>0</v>
       </c>
       <c r="D946">
-        <v>150000</v>
+        <v>227040000</v>
       </c>
       <c r="E946" s="2">
         <v>43231</v>
@@ -30744,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="D947">
-        <v>173000</v>
+        <v>248404000</v>
       </c>
       <c r="E947" s="2">
         <v>43442</v>
@@ -30776,7 +30789,7 @@
         <v>0</v>
       </c>
       <c r="D948">
-        <v>715000</v>
+        <v>741084000</v>
       </c>
       <c r="E948" s="2">
         <v>44547</v>
@@ -30808,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="D949">
-        <v>214000</v>
+        <v>285293000</v>
       </c>
       <c r="E949" s="2">
         <v>43192</v>
@@ -30840,7 +30853,7 @@
         <v>0</v>
       </c>
       <c r="D950">
-        <v>220000</v>
+        <v>290667000</v>
       </c>
       <c r="E950" s="2">
         <v>43426</v>
@@ -30872,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="D951">
-        <v>819000</v>
+        <v>835239000</v>
       </c>
       <c r="E951" s="2">
         <v>44404</v>
@@ -30904,7 +30917,7 @@
         <v>0</v>
       </c>
       <c r="D952">
-        <v>380000</v>
+        <v>435984000</v>
       </c>
       <c r="E952" s="2">
         <v>43208</v>
@@ -30936,7 +30949,7 @@
         <v>0</v>
       </c>
       <c r="D953">
-        <v>812000</v>
+        <v>828852000</v>
       </c>
       <c r="E953" s="2">
         <v>42995</v>
@@ -30968,7 +30981,7 @@
         <v>0</v>
       </c>
       <c r="D954">
-        <v>507000</v>
+        <v>551515000</v>
       </c>
       <c r="E954" s="2">
         <v>43052</v>
@@ -31000,7 +31013,7 @@
         <v>0</v>
       </c>
       <c r="D955">
-        <v>581000</v>
+        <v>618785000</v>
       </c>
       <c r="E955" s="2">
         <v>43069</v>
@@ -31032,7 +31045,7 @@
         <v>0</v>
       </c>
       <c r="D956">
-        <v>364000</v>
+        <v>421558000</v>
       </c>
       <c r="E956" s="2">
         <v>43143</v>
@@ -31064,7 +31077,7 @@
         <v>0</v>
       </c>
       <c r="D957">
-        <v>475000</v>
+        <v>523026000</v>
       </c>
       <c r="E957" s="2">
         <v>42759</v>
@@ -31096,7 +31109,7 @@
         <v>0</v>
       </c>
       <c r="D958">
-        <v>410000</v>
+        <v>463189000</v>
       </c>
       <c r="E958" s="2">
         <v>42806</v>
@@ -31128,7 +31141,7 @@
         <v>0</v>
       </c>
       <c r="D959">
-        <v>549000</v>
+        <v>589978000</v>
       </c>
       <c r="E959" s="2">
         <v>43969</v>
@@ -31160,7 +31173,7 @@
         <v>0</v>
       </c>
       <c r="D960">
-        <v>893000</v>
+        <v>902975000</v>
       </c>
       <c r="E960" s="2">
         <v>44064</v>
@@ -31192,7 +31205,7 @@
         <v>0</v>
       </c>
       <c r="D961">
-        <v>624000</v>
+        <v>657814000</v>
       </c>
       <c r="E961" s="2">
         <v>44061</v>
@@ -31224,7 +31237,7 @@
         <v>0</v>
       </c>
       <c r="D962">
-        <v>585000</v>
+        <v>622776000</v>
       </c>
       <c r="E962" s="2">
         <v>43643</v>
@@ -31256,7 +31269,7 @@
         <v>0</v>
       </c>
       <c r="D963">
-        <v>633000</v>
+        <v>666629000</v>
       </c>
       <c r="E963" s="2">
         <v>43613</v>
@@ -31288,7 +31301,7 @@
         <v>0</v>
       </c>
       <c r="D964">
-        <v>27000</v>
+        <v>115073000</v>
       </c>
       <c r="E964" s="2">
         <v>44236</v>
@@ -31320,7 +31333,7 @@
         <v>0</v>
       </c>
       <c r="D965">
-        <v>238000</v>
+        <v>307476000</v>
       </c>
       <c r="E965" s="2">
         <v>43922</v>
@@ -31352,7 +31365,7 @@
         <v>0</v>
       </c>
       <c r="D966">
-        <v>420000</v>
+        <v>473077000</v>
       </c>
       <c r="E966" s="2">
         <v>44132</v>
@@ -31384,7 +31397,7 @@
         <v>0</v>
       </c>
       <c r="D967">
-        <v>977000</v>
+        <v>978817000</v>
       </c>
       <c r="E967" s="2">
         <v>44373</v>
@@ -31416,7 +31429,7 @@
         <v>0</v>
       </c>
       <c r="D968">
-        <v>744000</v>
+        <v>767414000</v>
       </c>
       <c r="E968" s="2">
         <v>43768</v>
@@ -31448,7 +31461,7 @@
         <v>0</v>
       </c>
       <c r="D969">
-        <v>913000</v>
+        <v>920458000</v>
       </c>
       <c r="E969" s="2">
         <v>44490</v>
@@ -31480,7 +31493,7 @@
         <v>0</v>
       </c>
       <c r="D970">
-        <v>561000</v>
+        <v>601275000</v>
       </c>
       <c r="E970" s="2">
         <v>43754</v>
@@ -31512,7 +31525,7 @@
         <v>0</v>
       </c>
       <c r="D971">
-        <v>871000</v>
+        <v>882386000</v>
       </c>
       <c r="E971" s="2">
         <v>44282</v>
@@ -31544,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="D972">
-        <v>471000</v>
+        <v>518726000</v>
       </c>
       <c r="E972" s="2">
         <v>43894</v>
@@ -31576,7 +31589,7 @@
         <v>0</v>
       </c>
       <c r="D973">
-        <v>907000</v>
+        <v>915877000</v>
       </c>
       <c r="E973" s="2">
         <v>44482</v>
@@ -31608,7 +31621,7 @@
         <v>0</v>
       </c>
       <c r="D974">
-        <v>992000</v>
+        <v>992849000</v>
       </c>
       <c r="E974" s="2">
         <v>43867</v>
@@ -31640,7 +31653,7 @@
         <v>0</v>
       </c>
       <c r="D975">
-        <v>668000</v>
+        <v>698464000</v>
       </c>
       <c r="E975" s="2">
         <v>43098</v>
@@ -31672,7 +31685,7 @@
         <v>0</v>
       </c>
       <c r="D976">
-        <v>486000</v>
+        <v>532998000</v>
       </c>
       <c r="E976" s="2">
         <v>43865</v>
@@ -31704,7 +31717,7 @@
         <v>0</v>
       </c>
       <c r="D977">
-        <v>714000</v>
+        <v>739954000</v>
       </c>
       <c r="E977" s="2">
         <v>43176</v>
@@ -31736,7 +31749,7 @@
         <v>0</v>
       </c>
       <c r="D978">
-        <v>952000</v>
+        <v>956012000</v>
       </c>
       <c r="E978" s="2">
         <v>44271</v>
@@ -31768,7 +31781,7 @@
         <v>0</v>
       </c>
       <c r="D979">
-        <v>469000</v>
+        <v>517314000</v>
       </c>
       <c r="E979" s="2">
         <v>44557</v>
@@ -31800,7 +31813,7 @@
         <v>0</v>
       </c>
       <c r="D980">
-        <v>693000</v>
+        <v>721164000</v>
       </c>
       <c r="E980" s="2">
         <v>44237</v>
@@ -31832,7 +31845,7 @@
         <v>0</v>
       </c>
       <c r="D981">
-        <v>57000</v>
+        <v>142661000</v>
       </c>
       <c r="E981" s="2">
         <v>43631</v>
@@ -31864,7 +31877,7 @@
         <v>0</v>
       </c>
       <c r="D982">
-        <v>586000</v>
+        <v>623741000</v>
       </c>
       <c r="E982" s="2">
         <v>43535</v>
@@ -31896,7 +31909,7 @@
         <v>0</v>
       </c>
       <c r="D983">
-        <v>311000</v>
+        <v>373559000</v>
       </c>
       <c r="E983" s="2">
         <v>44309</v>
@@ -31928,7 +31941,7 @@
         <v>0</v>
       </c>
       <c r="D984">
-        <v>769000</v>
+        <v>789551000</v>
       </c>
       <c r="E984" s="2">
         <v>42960</v>
@@ -31960,7 +31973,7 @@
         <v>0</v>
       </c>
       <c r="D985">
-        <v>299000</v>
+        <v>362806000</v>
       </c>
       <c r="E985" s="2">
         <v>44003</v>
@@ -31992,7 +32005,7 @@
         <v>0</v>
       </c>
       <c r="D986">
-        <v>606000</v>
+        <v>641452000</v>
       </c>
       <c r="E986" s="2">
         <v>43131</v>
@@ -32024,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="D987">
-        <v>503000</v>
+        <v>548444000</v>
       </c>
       <c r="E987" s="2">
         <v>42953</v>
@@ -32056,7 +32069,7 @@
         <v>0</v>
       </c>
       <c r="D988">
-        <v>997000</v>
+        <v>997651000</v>
       </c>
       <c r="E988" s="2">
         <v>44359</v>
@@ -32088,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="D989">
-        <v>873000</v>
+        <v>884309000</v>
       </c>
       <c r="E989" s="2">
         <v>42967</v>
@@ -32120,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="D990">
-        <v>97000</v>
+        <v>179085000</v>
       </c>
       <c r="E990" s="2">
         <v>43309</v>
@@ -32152,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="D991">
-        <v>914000</v>
+        <v>921897000</v>
       </c>
       <c r="E991" s="2">
         <v>43581</v>
@@ -32184,7 +32197,7 @@
         <v>0</v>
       </c>
       <c r="D992">
-        <v>769000</v>
+        <v>789713000</v>
       </c>
       <c r="E992" s="2">
         <v>43185</v>
@@ -32216,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="D993">
-        <v>120000</v>
+        <v>200270000</v>
       </c>
       <c r="E993" s="2">
         <v>44254</v>
@@ -32248,7 +32261,7 @@
         <v>0</v>
       </c>
       <c r="D994">
-        <v>750000</v>
+        <v>772751000</v>
       </c>
       <c r="E994" s="2">
         <v>44542</v>
@@ -32280,7 +32293,7 @@
         <v>0</v>
       </c>
       <c r="D995">
-        <v>921000</v>
+        <v>928013000</v>
       </c>
       <c r="E995" s="2">
         <v>42804</v>
@@ -32312,7 +32325,7 @@
         <v>0</v>
       </c>
       <c r="D996">
-        <v>307000</v>
+        <v>370170000</v>
       </c>
       <c r="E996" s="2">
         <v>44373</v>
@@ -32344,7 +32357,7 @@
         <v>0</v>
       </c>
       <c r="D997">
-        <v>560000</v>
+        <v>600053000</v>
       </c>
       <c r="E997" s="2">
         <v>43512</v>
@@ -32376,7 +32389,7 @@
         <v>0</v>
       </c>
       <c r="D998">
-        <v>161000</v>
+        <v>237452000</v>
       </c>
       <c r="E998" s="2">
         <v>43902</v>
@@ -32408,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="D999">
-        <v>375000</v>
+        <v>431810000</v>
       </c>
       <c r="E999" s="2">
         <v>43590</v>
@@ -32440,7 +32453,7 @@
         <v>0</v>
       </c>
       <c r="D1000">
-        <v>498000</v>
+        <v>543589000</v>
       </c>
       <c r="E1000" s="2">
         <v>43517</v>
@@ -32472,7 +32485,7 @@
         <v>0</v>
       </c>
       <c r="D1001">
-        <v>438000</v>
+        <v>489091000</v>
       </c>
       <c r="E1001" s="2">
         <v>43538</v>
@@ -32502,8 +32515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E88B70-30F3-43C8-AB50-6061E0399987}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -32525,7 +32538,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -32551,7 +32564,7 @@
       <c r="C2">
         <v>100000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>-48</v>
       </c>
       <c r="E2">
@@ -32578,7 +32591,7 @@
       <c r="C3">
         <v>100000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-36</v>
       </c>
       <c r="E3">
@@ -32605,7 +32618,7 @@
       <c r="C4">
         <v>100000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>-24</v>
       </c>
       <c r="E4">
@@ -32632,7 +32645,7 @@
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>-12</v>
       </c>
       <c r="E5">
@@ -32659,7 +32672,7 @@
       <c r="C6">
         <v>100000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
@@ -32686,7 +32699,7 @@
       <c r="C7">
         <v>100000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>-48</v>
       </c>
       <c r="E7">
@@ -32713,7 +32726,7 @@
       <c r="C8">
         <v>100000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>-36</v>
       </c>
       <c r="E8">
@@ -32740,7 +32753,7 @@
       <c r="C9">
         <v>100000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>-24</v>
       </c>
       <c r="E9">
@@ -32767,7 +32780,7 @@
       <c r="C10">
         <v>100000</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>-12</v>
       </c>
       <c r="E10">
@@ -32794,7 +32807,7 @@
       <c r="C11">
         <v>100000</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
@@ -32821,7 +32834,7 @@
       <c r="C12">
         <v>100000</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>-48</v>
       </c>
       <c r="E12">
@@ -32848,7 +32861,7 @@
       <c r="C13">
         <v>100000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>-36</v>
       </c>
       <c r="E13">
@@ -32875,7 +32888,7 @@
       <c r="C14">
         <v>100000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>-24</v>
       </c>
       <c r="E14">
@@ -32902,7 +32915,7 @@
       <c r="C15">
         <v>100000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>-12</v>
       </c>
       <c r="E15">
@@ -32929,7 +32942,7 @@
       <c r="C16">
         <v>100000</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
@@ -32956,7 +32969,7 @@
       <c r="C17">
         <v>100000</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>-48</v>
       </c>
       <c r="E17">
@@ -32983,7 +32996,7 @@
       <c r="C18">
         <v>100000</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>-36</v>
       </c>
       <c r="E18">
@@ -33010,7 +33023,7 @@
       <c r="C19">
         <v>100000</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>-24</v>
       </c>
       <c r="E19">
@@ -33037,7 +33050,7 @@
       <c r="C20">
         <v>100000</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>-12</v>
       </c>
       <c r="E20">
@@ -33064,7 +33077,7 @@
       <c r="C21">
         <v>100000</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
@@ -33091,7 +33104,7 @@
       <c r="C22">
         <v>100000</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>12</v>
       </c>
       <c r="E22">
@@ -33118,7 +33131,7 @@
       <c r="C23">
         <v>100000</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>24</v>
       </c>
       <c r="E23">
@@ -33145,7 +33158,7 @@
       <c r="C24">
         <v>100000</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>36</v>
       </c>
       <c r="E24">
@@ -33172,7 +33185,7 @@
       <c r="C25">
         <v>100000</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>48</v>
       </c>
       <c r="E25">
@@ -33199,7 +33212,7 @@
       <c r="C26">
         <v>100000</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>60</v>
       </c>
       <c r="E26">
@@ -33226,7 +33239,7 @@
       <c r="C27">
         <v>100000</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>72</v>
       </c>
       <c r="E27">
@@ -33253,7 +33266,7 @@
       <c r="C28">
         <v>100000</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>84</v>
       </c>
       <c r="E28">
@@ -33280,7 +33293,7 @@
       <c r="C29">
         <v>100000</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>96</v>
       </c>
       <c r="E29">
@@ -33307,7 +33320,7 @@
       <c r="C30">
         <v>100000</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>108</v>
       </c>
       <c r="E30">
@@ -33334,7 +33347,7 @@
       <c r="C31">
         <v>100000</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>120</v>
       </c>
       <c r="E31">
